--- a/JupyterNotebooks/AvgHW/O554F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9918424219045031</v>
+      </c>
+      <c r="D3">
+        <v>1.006399795468471</v>
+      </c>
+      <c r="E3">
         <v>1.006838913780032</v>
       </c>
-      <c r="D3">
-        <v>0.9837744724610833</v>
-      </c>
-      <c r="E3">
+      <c r="F3">
+        <v>1.003836067317458</v>
+      </c>
+      <c r="G3">
+        <v>0.9837744724610836</v>
+      </c>
+      <c r="H3">
         <v>1.00260032796696</v>
       </c>
-      <c r="F3">
+      <c r="I3">
+        <v>0.9837744724610836</v>
+      </c>
+      <c r="J3">
         <v>1.006838913780032</v>
-      </c>
-      <c r="G3">
-        <v>1.006399795468471</v>
-      </c>
-      <c r="H3">
-        <v>0.9918424219045031</v>
-      </c>
-      <c r="I3">
-        <v>1.003836067317458</v>
-      </c>
-      <c r="J3">
-        <v>0.9837744724610833</v>
       </c>
       <c r="K3">
         <v>1.006838913780032</v>
@@ -764,10 +656,10 @@
         <v>1.00260032796696</v>
       </c>
       <c r="M3">
-        <v>0.9931874002140216</v>
+        <v>0.9931874002140217</v>
       </c>
       <c r="N3">
-        <v>0.9931874002140216</v>
+        <v>0.9931874002140217</v>
       </c>
       <c r="O3">
         <v>0.9927390741108488</v>
@@ -776,7 +668,7 @@
         <v>0.997737904736025</v>
       </c>
       <c r="Q3">
-        <v>0.997737904736025</v>
+        <v>0.9977379047360251</v>
       </c>
       <c r="R3">
         <v>1.000013156997027</v>
@@ -788,7 +680,7 @@
         <v>0.9992153331497512</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9842640444774235</v>
+      </c>
+      <c r="D4">
+        <v>1.012502096520384</v>
+      </c>
+      <c r="E4">
         <v>1.013027561790472</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>1.007400390631225</v>
+      </c>
+      <c r="G4">
         <v>0.96870907853638</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>1.005084681175477</v>
       </c>
-      <c r="F4">
+      <c r="I4">
+        <v>0.96870907853638</v>
+      </c>
+      <c r="J4">
         <v>1.013027561790472</v>
-      </c>
-      <c r="G4">
-        <v>1.012502096520384</v>
-      </c>
-      <c r="H4">
-        <v>0.9842640444774235</v>
-      </c>
-      <c r="I4">
-        <v>1.007400390631225</v>
-      </c>
-      <c r="J4">
-        <v>0.96870907853638</v>
       </c>
       <c r="K4">
         <v>1.013027561790472</v>
@@ -850,7 +742,7 @@
         <v>0.9984979755218938</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9698437017588324</v>
+      </c>
+      <c r="D5">
+        <v>1.024240994542344</v>
+      </c>
+      <c r="E5">
         <v>1.024773521598876</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>1.014156814841595</v>
+      </c>
+      <c r="G5">
         <v>0.9402629801003477</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>1.009787798766851</v>
       </c>
-      <c r="F5">
+      <c r="I5">
+        <v>0.9402629801003477</v>
+      </c>
+      <c r="J5">
         <v>1.024773521598876</v>
-      </c>
-      <c r="G5">
-        <v>1.024240994542343</v>
-      </c>
-      <c r="H5">
-        <v>0.9698437017588324</v>
-      </c>
-      <c r="I5">
-        <v>1.014156814841595</v>
-      </c>
-      <c r="J5">
-        <v>0.9402629801003477</v>
       </c>
       <c r="K5">
         <v>1.024773521598876</v>
@@ -912,7 +804,7 @@
         <v>0.997177635268141</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9557448732995698</v>
+      </c>
+      <c r="D6">
+        <v>1.035713028661208</v>
+      </c>
+      <c r="E6">
         <v>1.036193762904677</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>1.020763241075661</v>
+      </c>
+      <c r="G6">
         <v>0.9125968396859747</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>1.014413216890393</v>
       </c>
-      <c r="F6">
+      <c r="I6">
+        <v>0.9125968396859747</v>
+      </c>
+      <c r="J6">
         <v>1.036193762904677</v>
-      </c>
-      <c r="G6">
-        <v>1.035713028661208</v>
-      </c>
-      <c r="H6">
-        <v>0.9557448732995698</v>
-      </c>
-      <c r="I6">
-        <v>1.020763241075661</v>
-      </c>
-      <c r="J6">
-        <v>0.9125968396859747</v>
       </c>
       <c r="K6">
         <v>1.036193762904677</v>
@@ -950,31 +842,31 @@
         <v>1.014413216890393</v>
       </c>
       <c r="M6">
-        <v>0.9635050282881837</v>
+        <v>0.9635050282881836</v>
       </c>
       <c r="N6">
-        <v>0.9635050282881837</v>
+        <v>0.9635050282881836</v>
       </c>
       <c r="O6">
-        <v>0.9609183099586458</v>
+        <v>0.9609183099586457</v>
       </c>
       <c r="P6">
-        <v>0.9877346064936816</v>
+        <v>0.9877346064936815</v>
       </c>
       <c r="Q6">
-        <v>0.9877346064936816</v>
+        <v>0.9877346064936815</v>
       </c>
       <c r="R6">
-        <v>0.9998493955964305</v>
+        <v>0.9998493955964304</v>
       </c>
       <c r="S6">
-        <v>0.9998493955964305</v>
+        <v>0.9998493955964304</v>
       </c>
       <c r="T6">
-        <v>0.9959041604195806</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>0.9959041604195805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9994667773179094</v>
+      </c>
+      <c r="D7">
+        <v>1.000949924358131</v>
+      </c>
+      <c r="E7">
         <v>0.9999896628964965</v>
       </c>
-      <c r="D7">
-        <v>0.9991846992147162</v>
-      </c>
-      <c r="E7">
+      <c r="F7">
+        <v>1.000226657278724</v>
+      </c>
+      <c r="G7">
+        <v>0.9991846992147159</v>
+      </c>
+      <c r="H7">
         <v>1.000324185855903</v>
       </c>
-      <c r="F7">
+      <c r="I7">
+        <v>0.9991846992147159</v>
+      </c>
+      <c r="J7">
         <v>0.9999896628964965</v>
-      </c>
-      <c r="G7">
-        <v>1.000949924358131</v>
-      </c>
-      <c r="H7">
-        <v>0.9994667773179094</v>
-      </c>
-      <c r="I7">
-        <v>1.000226657278725</v>
-      </c>
-      <c r="J7">
-        <v>0.9991846992147162</v>
       </c>
       <c r="K7">
         <v>0.9999896628964965</v>
@@ -1012,31 +904,31 @@
         <v>1.000324185855903</v>
       </c>
       <c r="M7">
-        <v>0.9997544425353097</v>
+        <v>0.9997544425353093</v>
       </c>
       <c r="N7">
-        <v>0.9997544425353097</v>
+        <v>0.9997544425353093</v>
       </c>
       <c r="O7">
-        <v>0.9996585541295095</v>
+        <v>0.9996585541295094</v>
       </c>
       <c r="P7">
-        <v>0.9998328493223719</v>
+        <v>0.9998328493223717</v>
       </c>
       <c r="Q7">
-        <v>0.9998328493223719</v>
+        <v>0.9998328493223717</v>
       </c>
       <c r="R7">
-        <v>0.9998720527159031</v>
+        <v>0.999872052715903</v>
       </c>
       <c r="S7">
-        <v>0.9998720527159031</v>
+        <v>0.999872052715903</v>
       </c>
       <c r="T7">
         <v>1.000023651153647</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9986888801574336</v>
+      </c>
+      <c r="D8">
+        <v>1.002335978380831</v>
+      </c>
+      <c r="E8">
         <v>0.999967324162344</v>
       </c>
-      <c r="D8">
-        <v>0.997986476324335</v>
-      </c>
-      <c r="E8">
+      <c r="F8">
+        <v>1.000558773319281</v>
+      </c>
+      <c r="G8">
+        <v>0.9979864763243348</v>
+      </c>
+      <c r="H8">
         <v>1.00080216826188</v>
       </c>
-      <c r="F8">
+      <c r="I8">
+        <v>0.9979864763243348</v>
+      </c>
+      <c r="J8">
         <v>0.999967324162344</v>
-      </c>
-      <c r="G8">
-        <v>1.002335978380831</v>
-      </c>
-      <c r="H8">
-        <v>0.9986888801574338</v>
-      </c>
-      <c r="I8">
-        <v>1.000558773319281</v>
-      </c>
-      <c r="J8">
-        <v>0.997986476324335</v>
       </c>
       <c r="K8">
         <v>0.999967324162344</v>
@@ -1080,25 +972,25 @@
         <v>0.9993943222931072</v>
       </c>
       <c r="O8">
-        <v>0.9991591749145495</v>
+        <v>0.9991591749145493</v>
       </c>
       <c r="P8">
         <v>0.9995853229161861</v>
       </c>
       <c r="Q8">
-        <v>0.9995853229161863</v>
+        <v>0.9995853229161861</v>
       </c>
       <c r="R8">
-        <v>0.9996808232277257</v>
+        <v>0.9996808232277256</v>
       </c>
       <c r="S8">
-        <v>0.9996808232277257</v>
+        <v>0.9996808232277256</v>
       </c>
       <c r="T8">
         <v>1.000056600101017</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.99824405815588</v>
+      </c>
+      <c r="D9">
+        <v>1.003106041707512</v>
+      </c>
+      <c r="E9">
         <v>0.999955502340659</v>
       </c>
-      <c r="D9">
+      <c r="F9">
+        <v>1.000753108625628</v>
+      </c>
+      <c r="G9">
         <v>0.9972747511002851</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>1.00108134056075</v>
       </c>
-      <c r="F9">
+      <c r="I9">
+        <v>0.9972747511002851</v>
+      </c>
+      <c r="J9">
         <v>0.999955502340659</v>
-      </c>
-      <c r="G9">
-        <v>1.003106041707512</v>
-      </c>
-      <c r="H9">
-        <v>0.99824405815588</v>
-      </c>
-      <c r="I9">
-        <v>1.000753108625628</v>
-      </c>
-      <c r="J9">
-        <v>0.9972747511002851</v>
       </c>
       <c r="K9">
         <v>0.999955502340659</v>
@@ -1160,7 +1052,7 @@
         <v>1.000069133748452</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.996140503297796</v>
+      </c>
+      <c r="D10">
+        <v>1.006819663608049</v>
+      </c>
+      <c r="E10">
         <v>0.9999267370251791</v>
       </c>
-      <c r="D10">
+      <c r="F10">
+        <v>1.00165236409952</v>
+      </c>
+      <c r="G10">
         <v>0.994020980395496</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>1.002362499577881</v>
       </c>
-      <c r="F10">
+      <c r="I10">
+        <v>0.994020980395496</v>
+      </c>
+      <c r="J10">
         <v>0.9999267370251791</v>
-      </c>
-      <c r="G10">
-        <v>1.006819663608049</v>
-      </c>
-      <c r="H10">
-        <v>0.996140503297796</v>
-      </c>
-      <c r="I10">
-        <v>1.00165236409952</v>
-      </c>
-      <c r="J10">
-        <v>0.994020980395496</v>
       </c>
       <c r="K10">
         <v>0.9999267370251791</v>
@@ -1222,7 +1114,7 @@
         <v>1.000153791333987</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9937826718501237</v>
+      </c>
+      <c r="D11">
+        <v>1.01090116904997</v>
+      </c>
+      <c r="E11">
         <v>0.9999138114793991</v>
       </c>
-      <c r="D11">
+      <c r="F11">
+        <v>1.002674014861147</v>
+      </c>
+      <c r="G11">
         <v>0.9902800899873577</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>1.003809899077512</v>
       </c>
-      <c r="F11">
+      <c r="I11">
+        <v>0.9902800899873577</v>
+      </c>
+      <c r="J11">
         <v>0.9999138114793991</v>
-      </c>
-      <c r="G11">
-        <v>1.01090116904997</v>
-      </c>
-      <c r="H11">
-        <v>0.9937826718501237</v>
-      </c>
-      <c r="I11">
-        <v>1.002674014861147</v>
-      </c>
-      <c r="J11">
-        <v>0.9902800899873577</v>
       </c>
       <c r="K11">
         <v>0.9999138114793991</v>
@@ -1284,7 +1176,7 @@
         <v>1.000226942717585</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,34 +1184,34 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.05432540472902</v>
+      </c>
+      <c r="D12">
+        <v>0.8530855837407341</v>
+      </c>
+      <c r="E12">
         <v>1.047365424485008</v>
       </c>
-      <c r="D12">
+      <c r="F12">
+        <v>0.9786589849979106</v>
+      </c>
+      <c r="G12">
         <v>1.061581022273859</v>
       </c>
-      <c r="E12">
-        <v>0.9503847246480531</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
+        <v>0.9503847246480529</v>
+      </c>
+      <c r="I12">
+        <v>1.061581022273859</v>
+      </c>
+      <c r="J12">
         <v>1.047365424485008</v>
-      </c>
-      <c r="G12">
-        <v>0.8530855837407341</v>
-      </c>
-      <c r="H12">
-        <v>1.05432540472902</v>
-      </c>
-      <c r="I12">
-        <v>0.9786589849979105</v>
-      </c>
-      <c r="J12">
-        <v>1.061581022273859</v>
       </c>
       <c r="K12">
         <v>1.047365424485008</v>
       </c>
       <c r="L12">
-        <v>0.9503847246480531</v>
+        <v>0.9503847246480529</v>
       </c>
       <c r="M12">
         <v>1.005982873460956</v>
@@ -1343,10 +1235,10 @@
         <v>1.026674148972982</v>
       </c>
       <c r="T12">
-        <v>0.9909001908124307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>0.9909001908124306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,34 +1246,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9611230171532087</v>
+        <v>1.015878292789818</v>
       </c>
       <c r="D13">
+        <v>1.014575212475614</v>
+      </c>
+      <c r="E13">
+        <v>0.9611230171532089</v>
+      </c>
+      <c r="F13">
+        <v>0.991689203474276</v>
+      </c>
+      <c r="G13">
         <v>1.042806609087952</v>
       </c>
-      <c r="E13">
-        <v>1.004267878115693</v>
-      </c>
-      <c r="F13">
-        <v>0.9611230171532087</v>
-      </c>
-      <c r="G13">
-        <v>1.014575212475614</v>
-      </c>
       <c r="H13">
-        <v>1.015878292789818</v>
+        <v>1.004267878115692</v>
       </c>
       <c r="I13">
-        <v>0.991689203474276</v>
+        <v>1.042806609087952</v>
       </c>
       <c r="J13">
-        <v>1.042806609087952</v>
+        <v>0.9611230171532089</v>
       </c>
       <c r="K13">
-        <v>0.9611230171532087</v>
+        <v>0.9611230171532089</v>
       </c>
       <c r="L13">
-        <v>1.004267878115693</v>
+        <v>1.004267878115692</v>
       </c>
       <c r="M13">
         <v>1.023537243601822</v>
@@ -1399,16 +1291,16 @@
         <v>1.002732501452284</v>
       </c>
       <c r="R13">
-        <v>0.9923301303775154</v>
+        <v>0.9923301303775155</v>
       </c>
       <c r="S13">
-        <v>0.9923301303775154</v>
+        <v>0.9923301303775155</v>
       </c>
       <c r="T13">
         <v>1.00505670218276</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.166973523183243</v>
+      </c>
+      <c r="D14">
+        <v>0.7600674521479991</v>
+      </c>
+      <c r="E14">
         <v>0.9524672683731991</v>
       </c>
-      <c r="D14">
+      <c r="F14">
+        <v>0.9268160727153568</v>
+      </c>
+      <c r="G14">
         <v>1.277945304197526</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>0.9162600194777768</v>
       </c>
-      <c r="F14">
+      <c r="I14">
+        <v>1.277945304197526</v>
+      </c>
+      <c r="J14">
         <v>0.9524672683731991</v>
-      </c>
-      <c r="G14">
-        <v>0.7600674521479991</v>
-      </c>
-      <c r="H14">
-        <v>1.166973523183243</v>
-      </c>
-      <c r="I14">
-        <v>0.9268160727153568</v>
-      </c>
-      <c r="J14">
-        <v>1.277945304197526</v>
       </c>
       <c r="K14">
         <v>0.9524672683731991</v>
@@ -1470,7 +1362,7 @@
         <v>1.000088273349183</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,31 +1370,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9702584587703184</v>
+        <v>1.043671968998775</v>
       </c>
       <c r="D15">
+        <v>0.9638890393697279</v>
+      </c>
+      <c r="E15">
+        <v>0.9702584587703185</v>
+      </c>
+      <c r="F15">
+        <v>0.978199097757483</v>
+      </c>
+      <c r="G15">
         <v>1.097001383482977</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>0.9814668414772103</v>
       </c>
-      <c r="F15">
-        <v>0.9702584587703184</v>
-      </c>
-      <c r="G15">
-        <v>0.963889039369728</v>
-      </c>
-      <c r="H15">
-        <v>1.043671968998775</v>
-      </c>
       <c r="I15">
-        <v>0.978199097757483</v>
+        <v>1.097001383482977</v>
       </c>
       <c r="J15">
-        <v>1.097001383482977</v>
+        <v>0.9702584587703185</v>
       </c>
       <c r="K15">
-        <v>0.9702584587703184</v>
+        <v>0.9702584587703185</v>
       </c>
       <c r="L15">
         <v>0.9814668414772103</v>
@@ -1520,7 +1412,7 @@
         <v>1.016242227910169</v>
       </c>
       <c r="Q15">
-        <v>1.016242227910168</v>
+        <v>1.016242227910169</v>
       </c>
       <c r="R15">
         <v>1.004746285625206</v>
@@ -1532,7 +1424,7 @@
         <v>1.005747798309415</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000461723850728</v>
+        <v>0.8412527806846253</v>
       </c>
       <c r="D16">
-        <v>0.9998196396670413</v>
+        <v>1.132072761061525</v>
       </c>
       <c r="E16">
-        <v>0.9998445720101744</v>
+        <v>1.12628469560629</v>
       </c>
       <c r="F16">
-        <v>1.000461723850728</v>
+        <v>1.074399487405704</v>
       </c>
       <c r="G16">
-        <v>0.9996648830332027</v>
+        <v>0.6869114745846557</v>
       </c>
       <c r="H16">
-        <v>0.9999457238327765</v>
+        <v>1.053047544692202</v>
       </c>
       <c r="I16">
-        <v>1.000024499648771</v>
+        <v>0.6869114745846557</v>
       </c>
       <c r="J16">
-        <v>0.9998196396670413</v>
+        <v>1.12628469560629</v>
       </c>
       <c r="K16">
-        <v>1.000461723850728</v>
+        <v>1.12628469560629</v>
       </c>
       <c r="L16">
-        <v>0.9998445720101744</v>
+        <v>1.053047544692202</v>
       </c>
       <c r="M16">
-        <v>0.9998321058386079</v>
+        <v>0.8699795096384288</v>
       </c>
       <c r="N16">
-        <v>0.9998321058386079</v>
+        <v>0.8699795096384288</v>
       </c>
       <c r="O16">
-        <v>0.9998699785033308</v>
+        <v>0.8604039333204944</v>
       </c>
       <c r="P16">
-        <v>1.000041978509315</v>
+        <v>0.9554145716277157</v>
       </c>
       <c r="Q16">
-        <v>1.000041978509315</v>
+        <v>0.9554145716277157</v>
       </c>
       <c r="R16">
-        <v>1.000146914844668</v>
+        <v>0.9981321026223592</v>
       </c>
       <c r="S16">
-        <v>1.000146914844668</v>
+        <v>0.9981321026223592</v>
       </c>
       <c r="T16">
-        <v>0.9999601736737822</v>
+        <v>0.9856614573391672</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9991937279891171</v>
+        <v>0.8707796913980995</v>
       </c>
       <c r="D17">
-        <v>0.9992638028065871</v>
+        <v>1.12601692469481</v>
       </c>
       <c r="E17">
-        <v>1.000701717046461</v>
+        <v>1.086846563712503</v>
       </c>
       <c r="F17">
-        <v>0.9991937279891171</v>
+        <v>1.059720975360376</v>
       </c>
       <c r="G17">
-        <v>1.001972677979694</v>
+        <v>0.7537688092651584</v>
       </c>
       <c r="H17">
-        <v>0.9993440318874688</v>
+        <v>1.048558178329298</v>
       </c>
       <c r="I17">
-        <v>1.000262070145457</v>
+        <v>0.7537688092651584</v>
       </c>
       <c r="J17">
-        <v>0.9992638028065871</v>
+        <v>1.086846563712503</v>
       </c>
       <c r="K17">
-        <v>0.9991937279891171</v>
+        <v>1.086846563712503</v>
       </c>
       <c r="L17">
-        <v>1.000701717046461</v>
+        <v>1.048558178329298</v>
       </c>
       <c r="M17">
-        <v>0.9999827599265239</v>
+        <v>0.901163493797228</v>
       </c>
       <c r="N17">
-        <v>0.9999827599265239</v>
+        <v>0.901163493797228</v>
       </c>
       <c r="O17">
-        <v>0.9997698505801722</v>
+        <v>0.8910355596641852</v>
       </c>
       <c r="P17">
-        <v>0.9997197492807216</v>
+        <v>0.9630578504356531</v>
       </c>
       <c r="Q17">
-        <v>0.9997197492807217</v>
+        <v>0.9630578504356531</v>
       </c>
       <c r="R17">
-        <v>0.9995882439578205</v>
+        <v>0.9940050287548656</v>
       </c>
       <c r="S17">
-        <v>0.9995882439578205</v>
+        <v>0.9940050287548656</v>
       </c>
       <c r="T17">
-        <v>1.000123004642464</v>
+        <v>0.9909485237933741</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00391065612619</v>
+        <v>0.9302347801625535</v>
       </c>
       <c r="D18">
-        <v>0.9942774714218722</v>
+        <v>1.11285754680115</v>
       </c>
       <c r="E18">
-        <v>1.000155676881875</v>
+        <v>1.008240394774571</v>
       </c>
       <c r="F18">
-        <v>1.00391065612619</v>
+        <v>1.030213495597456</v>
       </c>
       <c r="G18">
-        <v>1.000280968666016</v>
+        <v>0.8879122859336369</v>
       </c>
       <c r="H18">
-        <v>0.9974133763440092</v>
+        <v>1.039255922777792</v>
       </c>
       <c r="I18">
-        <v>1.001250424021589</v>
+        <v>0.8879122859336369</v>
       </c>
       <c r="J18">
-        <v>0.9942774714218722</v>
+        <v>1.008240394774571</v>
       </c>
       <c r="K18">
-        <v>1.00391065612619</v>
+        <v>1.008240394774571</v>
       </c>
       <c r="L18">
-        <v>1.000155676881875</v>
+        <v>1.039255922777792</v>
       </c>
       <c r="M18">
-        <v>0.9972165741518737</v>
+        <v>0.9635841043557145</v>
       </c>
       <c r="N18">
-        <v>0.9972165741518737</v>
+        <v>0.9635841043557145</v>
       </c>
       <c r="O18">
-        <v>0.9972821748825855</v>
+        <v>0.9524676629579941</v>
       </c>
       <c r="P18">
-        <v>0.9994479348099791</v>
+        <v>0.9784695344953335</v>
       </c>
       <c r="Q18">
-        <v>0.9994479348099791</v>
+        <v>0.9784695344953335</v>
       </c>
       <c r="R18">
-        <v>1.000563615139032</v>
+        <v>0.9859122495651429</v>
       </c>
       <c r="S18">
-        <v>1.000563615139032</v>
+        <v>0.9859122495651429</v>
       </c>
       <c r="T18">
-        <v>0.9995480955769253</v>
+        <v>1.001452404341193</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9237142865563233</v>
+      </c>
+      <c r="D19">
+        <v>1.132952605842234</v>
+      </c>
+      <c r="E19">
+        <v>1.001582088071042</v>
+      </c>
+      <c r="F19">
+        <v>1.032415295885473</v>
+      </c>
+      <c r="G19">
+        <v>0.8832880061995456</v>
+      </c>
+      <c r="H19">
+        <v>1.0451038599126</v>
+      </c>
+      <c r="I19">
+        <v>0.8832880061995456</v>
+      </c>
+      <c r="J19">
+        <v>1.001582088071042</v>
+      </c>
+      <c r="K19">
+        <v>1.001582088071042</v>
+      </c>
+      <c r="L19">
+        <v>1.0451038599126</v>
+      </c>
+      <c r="M19">
+        <v>0.9641959330560728</v>
+      </c>
+      <c r="N19">
+        <v>0.9641959330560728</v>
+      </c>
+      <c r="O19">
+        <v>0.9507020508894897</v>
+      </c>
+      <c r="P19">
+        <v>0.976657984727729</v>
+      </c>
+      <c r="Q19">
+        <v>0.976657984727729</v>
+      </c>
+      <c r="R19">
+        <v>0.9828890105635573</v>
+      </c>
+      <c r="S19">
+        <v>0.9828890105635573</v>
+      </c>
+      <c r="T19">
+        <v>1.003176023744536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999457238327766</v>
+      </c>
+      <c r="D20">
+        <v>0.9996648830332028</v>
+      </c>
+      <c r="E20">
+        <v>1.000461723850728</v>
+      </c>
+      <c r="F20">
+        <v>1.000024499648771</v>
+      </c>
+      <c r="G20">
+        <v>0.9998196396670407</v>
+      </c>
+      <c r="H20">
+        <v>0.9998445720101743</v>
+      </c>
+      <c r="I20">
+        <v>0.9998196396670407</v>
+      </c>
+      <c r="J20">
+        <v>1.000461723850728</v>
+      </c>
+      <c r="K20">
+        <v>1.000461723850728</v>
+      </c>
+      <c r="L20">
+        <v>0.9998445720101743</v>
+      </c>
+      <c r="M20">
+        <v>0.9998321058386075</v>
+      </c>
+      <c r="N20">
+        <v>0.9998321058386075</v>
+      </c>
+      <c r="O20">
+        <v>0.9998699785033306</v>
+      </c>
+      <c r="P20">
+        <v>1.000041978509314</v>
+      </c>
+      <c r="Q20">
+        <v>1.000041978509314</v>
+      </c>
+      <c r="R20">
+        <v>1.000146914844668</v>
+      </c>
+      <c r="S20">
+        <v>1.000146914844668</v>
+      </c>
+      <c r="T20">
+        <v>0.9999601736737823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9993440318874688</v>
+      </c>
+      <c r="D21">
+        <v>1.001972677979694</v>
+      </c>
+      <c r="E21">
+        <v>0.9991937279891175</v>
+      </c>
+      <c r="F21">
+        <v>1.000262070145457</v>
+      </c>
+      <c r="G21">
+        <v>0.9992638028065871</v>
+      </c>
+      <c r="H21">
+        <v>1.000701717046461</v>
+      </c>
+      <c r="I21">
+        <v>0.9992638028065871</v>
+      </c>
+      <c r="J21">
+        <v>0.9991937279891175</v>
+      </c>
+      <c r="K21">
+        <v>0.9991937279891175</v>
+      </c>
+      <c r="L21">
+        <v>1.000701717046461</v>
+      </c>
+      <c r="M21">
+        <v>0.9999827599265239</v>
+      </c>
+      <c r="N21">
+        <v>0.9999827599265239</v>
+      </c>
+      <c r="O21">
+        <v>0.9997698505801722</v>
+      </c>
+      <c r="P21">
+        <v>0.9997197492807217</v>
+      </c>
+      <c r="Q21">
+        <v>0.9997197492807217</v>
+      </c>
+      <c r="R21">
+        <v>0.9995882439578206</v>
+      </c>
+      <c r="S21">
+        <v>0.9995882439578206</v>
+      </c>
+      <c r="T21">
+        <v>1.000123004642464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9974133763440092</v>
+      </c>
+      <c r="D22">
+        <v>1.000280968666016</v>
+      </c>
+      <c r="E22">
+        <v>1.00391065612619</v>
+      </c>
+      <c r="F22">
+        <v>1.001250424021589</v>
+      </c>
+      <c r="G22">
+        <v>0.994277471421872</v>
+      </c>
+      <c r="H22">
+        <v>1.000155676881875</v>
+      </c>
+      <c r="I22">
+        <v>0.994277471421872</v>
+      </c>
+      <c r="J22">
+        <v>1.00391065612619</v>
+      </c>
+      <c r="K22">
+        <v>1.00391065612619</v>
+      </c>
+      <c r="L22">
+        <v>1.000155676881875</v>
+      </c>
+      <c r="M22">
+        <v>0.9972165741518735</v>
+      </c>
+      <c r="N22">
+        <v>0.9972165741518735</v>
+      </c>
+      <c r="O22">
+        <v>0.9972821748825854</v>
+      </c>
+      <c r="P22">
+        <v>0.9994479348099791</v>
+      </c>
+      <c r="Q22">
+        <v>0.9994479348099791</v>
+      </c>
+      <c r="R22">
+        <v>1.000563615139032</v>
+      </c>
+      <c r="S22">
+        <v>1.000563615139032</v>
+      </c>
+      <c r="T22">
+        <v>0.9995480955769253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9937391697105834</v>
+      </c>
+      <c r="D23">
+        <v>0.9963123933485772</v>
+      </c>
+      <c r="E23">
         <v>1.013699931382854</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>1.003127590382545</v>
+      </c>
+      <c r="G23">
         <v>0.9847032847107016</v>
       </c>
-      <c r="E19">
+      <c r="H23">
         <v>0.998776835052634</v>
       </c>
-      <c r="F19">
+      <c r="I23">
+        <v>0.9847032847107016</v>
+      </c>
+      <c r="J23">
         <v>1.013699931382854</v>
       </c>
-      <c r="G19">
-        <v>0.9963123933485772</v>
-      </c>
-      <c r="H19">
-        <v>0.9937391697105834</v>
-      </c>
-      <c r="I19">
-        <v>1.003127590382545</v>
-      </c>
-      <c r="J19">
-        <v>0.9847032847107016</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.013699931382854</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>0.998776835052634</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9917400598816678</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9917400598816678</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9924064298246397</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9990600170487299</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9990600170487299</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.002719995632261</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.002719995632261</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9983932007646493</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/O554F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW25.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 1, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9918424219045031</v>
+        <v>0.9170217438112395</v>
       </c>
       <c r="D3">
-        <v>1.006399795468471</v>
+        <v>1.134042896368876</v>
       </c>
       <c r="E3">
-        <v>1.006838913780032</v>
+        <v>1.010250067932275</v>
       </c>
       <c r="F3">
-        <v>1.003836067317458</v>
+        <v>1.035884528227663</v>
       </c>
       <c r="G3">
-        <v>0.9837744724610836</v>
+        <v>0.866964832817003</v>
       </c>
       <c r="H3">
-        <v>1.00260032796696</v>
+        <v>1.046433689618151</v>
       </c>
       <c r="I3">
-        <v>0.9837744724610836</v>
+        <v>0.866964832817003</v>
       </c>
       <c r="J3">
-        <v>1.006838913780032</v>
+        <v>1.010250067932275</v>
       </c>
       <c r="K3">
-        <v>1.006838913780032</v>
+        <v>1.010250067932275</v>
       </c>
       <c r="L3">
-        <v>1.00260032796696</v>
+        <v>1.046433689618151</v>
       </c>
       <c r="M3">
-        <v>0.9931874002140217</v>
+        <v>0.9566992612175769</v>
       </c>
       <c r="N3">
-        <v>0.9931874002140217</v>
+        <v>0.9566992612175769</v>
       </c>
       <c r="O3">
-        <v>0.9927390741108488</v>
+        <v>0.943473422082131</v>
       </c>
       <c r="P3">
-        <v>0.997737904736025</v>
+        <v>0.9745495301224762</v>
       </c>
       <c r="Q3">
-        <v>0.9977379047360251</v>
+        <v>0.9745495301224762</v>
       </c>
       <c r="R3">
-        <v>1.000013156997027</v>
+        <v>0.9834746645749259</v>
       </c>
       <c r="S3">
-        <v>1.000013156997027</v>
+        <v>0.9834746645749259</v>
       </c>
       <c r="T3">
-        <v>0.9992153331497512</v>
+        <v>1.001766293129201</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9842640444774235</v>
+        <v>0.9240662186283959</v>
       </c>
       <c r="D4">
-        <v>1.012502096520384</v>
+        <v>1.123038518046969</v>
       </c>
       <c r="E4">
-        <v>1.013027561790472</v>
+        <v>1.008958403893963</v>
       </c>
       <c r="F4">
-        <v>1.007400390631225</v>
+        <v>1.032841458814762</v>
       </c>
       <c r="G4">
-        <v>0.96870907853638</v>
+        <v>0.8783088724524788</v>
       </c>
       <c r="H4">
-        <v>1.005084681175477</v>
+        <v>1.042669876824447</v>
       </c>
       <c r="I4">
-        <v>0.96870907853638</v>
+        <v>0.8783088724524788</v>
       </c>
       <c r="J4">
-        <v>1.013027561790472</v>
+        <v>1.008958403893963</v>
       </c>
       <c r="K4">
-        <v>1.013027561790472</v>
+        <v>1.008958403893963</v>
       </c>
       <c r="L4">
-        <v>1.005084681175477</v>
+        <v>1.042669876824447</v>
       </c>
       <c r="M4">
-        <v>0.9868968798559286</v>
+        <v>0.9604893746384628</v>
       </c>
       <c r="N4">
-        <v>0.9868968798559286</v>
+        <v>0.9604893746384628</v>
       </c>
       <c r="O4">
-        <v>0.9860192680630936</v>
+        <v>0.9483483226351073</v>
       </c>
       <c r="P4">
-        <v>0.9956071071674432</v>
+        <v>0.9766457177236297</v>
       </c>
       <c r="Q4">
-        <v>0.9956071071674432</v>
+        <v>0.9766457177236297</v>
       </c>
       <c r="R4">
-        <v>0.9999622208232004</v>
+        <v>0.9847238892662131</v>
       </c>
       <c r="S4">
-        <v>0.9999622208232004</v>
+        <v>0.9847238892662131</v>
       </c>
       <c r="T4">
-        <v>0.9984979755218938</v>
+        <v>1.001647224776836</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9698437017588324</v>
+        <v>0.9037228052291099</v>
       </c>
       <c r="D5">
-        <v>1.024240994542344</v>
+        <v>1.15501276954178</v>
       </c>
       <c r="E5">
-        <v>1.024773521598876</v>
+        <v>1.012506876603772</v>
       </c>
       <c r="F5">
-        <v>1.014156814841595</v>
+        <v>1.041623517924527</v>
       </c>
       <c r="G5">
-        <v>0.9402629801003477</v>
+        <v>0.8456195686792443</v>
       </c>
       <c r="H5">
-        <v>1.009787798766851</v>
+        <v>1.053605678113206</v>
       </c>
       <c r="I5">
-        <v>0.9402629801003477</v>
+        <v>0.8456195686792443</v>
       </c>
       <c r="J5">
-        <v>1.024773521598876</v>
+        <v>1.012506876603772</v>
       </c>
       <c r="K5">
-        <v>1.024773521598876</v>
+        <v>1.012506876603772</v>
       </c>
       <c r="L5">
-        <v>1.009787798766851</v>
+        <v>1.053605678113206</v>
       </c>
       <c r="M5">
-        <v>0.9750253894335995</v>
+        <v>0.9496126233962253</v>
       </c>
       <c r="N5">
-        <v>0.9750253894335995</v>
+        <v>0.9496126233962253</v>
       </c>
       <c r="O5">
-        <v>0.9732981602086772</v>
+        <v>0.9343160173405202</v>
       </c>
       <c r="P5">
-        <v>0.9916081001553584</v>
+        <v>0.9705773744654076</v>
       </c>
       <c r="Q5">
-        <v>0.9916081001553584</v>
+        <v>0.9705773744654076</v>
       </c>
       <c r="R5">
-        <v>0.9998994555162378</v>
+        <v>0.9810597499999988</v>
       </c>
       <c r="S5">
-        <v>0.9998994555162378</v>
+        <v>0.9810597499999988</v>
       </c>
       <c r="T5">
-        <v>0.997177635268141</v>
+        <v>1.00201520268194</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9557448732995698</v>
+        <v>0.891399914147727</v>
       </c>
       <c r="D6">
-        <v>1.035713028661208</v>
+        <v>1.174677151534092</v>
       </c>
       <c r="E6">
-        <v>1.036193762904677</v>
+        <v>1.014380724147728</v>
       </c>
       <c r="F6">
-        <v>1.020763241075661</v>
+        <v>1.046934279886363</v>
       </c>
       <c r="G6">
-        <v>0.9125968396859747</v>
+        <v>0.8259253722159084</v>
       </c>
       <c r="H6">
-        <v>1.014413216890393</v>
+        <v>1.060330800795455</v>
       </c>
       <c r="I6">
-        <v>0.9125968396859747</v>
+        <v>0.8259253722159084</v>
       </c>
       <c r="J6">
-        <v>1.036193762904677</v>
+        <v>1.014380724147728</v>
       </c>
       <c r="K6">
-        <v>1.036193762904677</v>
+        <v>1.014380724147728</v>
       </c>
       <c r="L6">
-        <v>1.014413216890393</v>
+        <v>1.060330800795455</v>
       </c>
       <c r="M6">
-        <v>0.9635050282881836</v>
+        <v>0.9431280865056817</v>
       </c>
       <c r="N6">
-        <v>0.9635050282881836</v>
+        <v>0.9431280865056817</v>
       </c>
       <c r="O6">
-        <v>0.9609183099586457</v>
+        <v>0.9258853623863635</v>
       </c>
       <c r="P6">
-        <v>0.9877346064936815</v>
+        <v>0.966878965719697</v>
       </c>
       <c r="Q6">
-        <v>0.9877346064936815</v>
+        <v>0.966878965719697</v>
       </c>
       <c r="R6">
-        <v>0.9998493955964304</v>
+        <v>0.9787544053267047</v>
       </c>
       <c r="S6">
-        <v>0.9998493955964304</v>
+        <v>0.9787544053267047</v>
       </c>
       <c r="T6">
-        <v>0.9959041604195805</v>
+        <v>1.002274707121212</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9994667773179094</v>
+        <v>0.9519406679715532</v>
       </c>
       <c r="D7">
-        <v>1.000949924358131</v>
+        <v>1.141677307391645</v>
       </c>
       <c r="E7">
-        <v>0.9999896628964965</v>
+        <v>0.9555160131788983</v>
       </c>
       <c r="F7">
-        <v>1.000226657278724</v>
+        <v>1.016601669545013</v>
       </c>
       <c r="G7">
-        <v>0.9991846992147159</v>
+        <v>0.9636972306806911</v>
       </c>
       <c r="H7">
-        <v>1.000324185855903</v>
+        <v>1.04173979892892</v>
       </c>
       <c r="I7">
-        <v>0.9991846992147159</v>
+        <v>0.9636972306806911</v>
       </c>
       <c r="J7">
-        <v>0.9999896628964965</v>
+        <v>0.9555160131788983</v>
       </c>
       <c r="K7">
-        <v>0.9999896628964965</v>
+        <v>0.9555160131788983</v>
       </c>
       <c r="L7">
-        <v>1.000324185855903</v>
+        <v>1.04173979892892</v>
       </c>
       <c r="M7">
-        <v>0.9997544425353093</v>
+        <v>1.002718514804805</v>
       </c>
       <c r="N7">
-        <v>0.9997544425353093</v>
+        <v>1.002718514804805</v>
       </c>
       <c r="O7">
-        <v>0.9996585541295094</v>
+        <v>0.985792565860388</v>
       </c>
       <c r="P7">
-        <v>0.9998328493223717</v>
+        <v>0.9869843475961697</v>
       </c>
       <c r="Q7">
-        <v>0.9998328493223717</v>
+        <v>0.9869843475961698</v>
       </c>
       <c r="R7">
-        <v>0.999872052715903</v>
+        <v>0.9791172639918519</v>
       </c>
       <c r="S7">
-        <v>0.999872052715903</v>
+        <v>0.9791172639918519</v>
       </c>
       <c r="T7">
-        <v>1.000023651153647</v>
+        <v>1.01186211461612</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9986888801574336</v>
+        <v>0.9505428522987101</v>
       </c>
       <c r="D8">
-        <v>1.002335978380831</v>
+        <v>1.144105443698038</v>
       </c>
       <c r="E8">
-        <v>0.999967324162344</v>
+        <v>0.9554868591489365</v>
       </c>
       <c r="F8">
-        <v>1.000558773319281</v>
+        <v>1.017211832590676</v>
       </c>
       <c r="G8">
-        <v>0.9979864763243348</v>
+        <v>0.9614326308685422</v>
       </c>
       <c r="H8">
-        <v>1.00080216826188</v>
+        <v>1.042613055461337</v>
       </c>
       <c r="I8">
-        <v>0.9979864763243348</v>
+        <v>0.9614326308685422</v>
       </c>
       <c r="J8">
-        <v>0.999967324162344</v>
+        <v>0.9554868591489365</v>
       </c>
       <c r="K8">
-        <v>0.999967324162344</v>
+        <v>0.9554868591489365</v>
       </c>
       <c r="L8">
-        <v>1.00080216826188</v>
+        <v>1.042613055461337</v>
       </c>
       <c r="M8">
-        <v>0.9993943222931072</v>
+        <v>1.00202284316494</v>
       </c>
       <c r="N8">
-        <v>0.9993943222931072</v>
+        <v>1.00202284316494</v>
       </c>
       <c r="O8">
-        <v>0.9991591749145493</v>
+        <v>0.98486284620953</v>
       </c>
       <c r="P8">
-        <v>0.9995853229161861</v>
+        <v>0.9865108484929387</v>
       </c>
       <c r="Q8">
-        <v>0.9995853229161861</v>
+        <v>0.9865108484929387</v>
       </c>
       <c r="R8">
-        <v>0.9996808232277256</v>
+        <v>0.9787548511569382</v>
       </c>
       <c r="S8">
-        <v>0.9996808232277256</v>
+        <v>0.9787548511569382</v>
       </c>
       <c r="T8">
-        <v>1.000056600101017</v>
+        <v>1.01189877901104</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.99824405815588</v>
+        <v>0.9491839341292899</v>
       </c>
       <c r="D9">
-        <v>1.003106041707512</v>
+        <v>1.146720590512305</v>
       </c>
       <c r="E9">
-        <v>0.999955502340659</v>
+        <v>0.9552941384265334</v>
       </c>
       <c r="F9">
-        <v>1.000753108625628</v>
+        <v>1.017781642131478</v>
       </c>
       <c r="G9">
-        <v>0.9972747511002851</v>
+        <v>0.959426235961822</v>
       </c>
       <c r="H9">
-        <v>1.00108134056075</v>
+        <v>1.043496663583502</v>
       </c>
       <c r="I9">
-        <v>0.9972747511002851</v>
+        <v>0.959426235961822</v>
       </c>
       <c r="J9">
-        <v>0.999955502340659</v>
+        <v>0.9552941384265334</v>
       </c>
       <c r="K9">
-        <v>0.999955502340659</v>
+        <v>0.9552941384265334</v>
       </c>
       <c r="L9">
-        <v>1.00108134056075</v>
+        <v>1.043496663583502</v>
       </c>
       <c r="M9">
-        <v>0.9991780458305177</v>
+        <v>1.001461449772662</v>
       </c>
       <c r="N9">
-        <v>0.9991780458305177</v>
+        <v>1.001461449772662</v>
       </c>
       <c r="O9">
-        <v>0.9988667166056384</v>
+        <v>0.9840356112248713</v>
       </c>
       <c r="P9">
-        <v>0.9994371980005647</v>
+        <v>0.986072345990619</v>
       </c>
       <c r="Q9">
-        <v>0.9994371980005647</v>
+        <v>0.986072345990619</v>
       </c>
       <c r="R9">
-        <v>0.9995667740855882</v>
+        <v>0.9783777940995977</v>
       </c>
       <c r="S9">
-        <v>0.9995667740855882</v>
+        <v>0.9783777940995977</v>
       </c>
       <c r="T9">
-        <v>1.000069133748452</v>
+        <v>1.011983867457488</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.996140503297796</v>
+        <v>0.947541479401162</v>
       </c>
       <c r="D10">
-        <v>1.006819663608049</v>
+        <v>1.149891270197724</v>
       </c>
       <c r="E10">
-        <v>0.9999267370251791</v>
+        <v>0.9547690511500364</v>
       </c>
       <c r="F10">
-        <v>1.00165236409952</v>
+        <v>1.018532161560394</v>
       </c>
       <c r="G10">
-        <v>0.994020980395496</v>
+        <v>0.9565884511239482</v>
       </c>
       <c r="H10">
-        <v>1.002362499577881</v>
+        <v>1.044772123880576</v>
       </c>
       <c r="I10">
-        <v>0.994020980395496</v>
+        <v>0.9565884511239482</v>
       </c>
       <c r="J10">
-        <v>0.9999267370251791</v>
+        <v>0.9547690511500364</v>
       </c>
       <c r="K10">
-        <v>0.9999267370251791</v>
+        <v>0.9547690511500364</v>
       </c>
       <c r="L10">
-        <v>1.002362499577881</v>
+        <v>1.044772123880576</v>
       </c>
       <c r="M10">
-        <v>0.9981917399866883</v>
+        <v>1.000680287502262</v>
       </c>
       <c r="N10">
-        <v>0.9981917399866883</v>
+        <v>1.000680287502262</v>
       </c>
       <c r="O10">
-        <v>0.9975079944237243</v>
+        <v>0.9829673514685621</v>
       </c>
       <c r="P10">
-        <v>0.998770072332852</v>
+        <v>0.9853765420515201</v>
       </c>
       <c r="Q10">
-        <v>0.998770072332852</v>
+        <v>0.9853765420515201</v>
       </c>
       <c r="R10">
-        <v>0.9990592385059337</v>
+        <v>0.9777246693261492</v>
       </c>
       <c r="S10">
-        <v>0.9990592385059337</v>
+        <v>0.9777246693261492</v>
       </c>
       <c r="T10">
-        <v>1.000153791333987</v>
+        <v>1.012015756218973</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9937826718501237</v>
+        <v>0.9910833650159303</v>
       </c>
       <c r="D11">
-        <v>1.01090116904997</v>
+        <v>1.007210499391784</v>
       </c>
       <c r="E11">
-        <v>0.9999138114793991</v>
+        <v>1.007262133567104</v>
       </c>
       <c r="F11">
-        <v>1.002674014861147</v>
+        <v>1.004189928810673</v>
       </c>
       <c r="G11">
-        <v>0.9902800899873577</v>
+        <v>0.9823138558062022</v>
       </c>
       <c r="H11">
-        <v>1.003809899077512</v>
+        <v>1.002925647955209</v>
       </c>
       <c r="I11">
-        <v>0.9902800899873577</v>
+        <v>0.9823138558062022</v>
       </c>
       <c r="J11">
-        <v>0.9999138114793991</v>
+        <v>1.007262133567104</v>
       </c>
       <c r="K11">
-        <v>0.9999138114793991</v>
+        <v>1.007262133567104</v>
       </c>
       <c r="L11">
-        <v>1.003809899077512</v>
+        <v>1.002925647955209</v>
       </c>
       <c r="M11">
-        <v>0.9970449945324347</v>
+        <v>0.9926197518807056</v>
       </c>
       <c r="N11">
-        <v>0.9970449945324347</v>
+        <v>0.9926197518807056</v>
       </c>
       <c r="O11">
-        <v>0.9959575536383311</v>
+        <v>0.9921076229257805</v>
       </c>
       <c r="P11">
-        <v>0.9980012668480894</v>
+        <v>0.9975005457761719</v>
       </c>
       <c r="Q11">
-        <v>0.9980012668480894</v>
+        <v>0.997500545776172</v>
       </c>
       <c r="R11">
-        <v>0.9984794030059169</v>
+        <v>0.9999409427239051</v>
       </c>
       <c r="S11">
-        <v>0.9984794030059169</v>
+        <v>0.9999409427239051</v>
       </c>
       <c r="T11">
-        <v>1.000226942717585</v>
+        <v>0.999164238424484</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.05432540472902</v>
+        <v>0.9958215479622511</v>
       </c>
       <c r="D12">
-        <v>0.8530855837407341</v>
+        <v>1.003787605492774</v>
       </c>
       <c r="E12">
-        <v>1.047365424485008</v>
+        <v>1.003090250507128</v>
       </c>
       <c r="F12">
-        <v>0.9786589849979106</v>
+        <v>1.001935565550259</v>
       </c>
       <c r="G12">
-        <v>1.061581022273859</v>
+        <v>0.9919724453130799</v>
       </c>
       <c r="H12">
-        <v>0.9503847246480529</v>
+        <v>1.001460386284974</v>
       </c>
       <c r="I12">
-        <v>1.061581022273859</v>
+        <v>0.9919724453130799</v>
       </c>
       <c r="J12">
-        <v>1.047365424485008</v>
+        <v>1.003090250507128</v>
       </c>
       <c r="K12">
-        <v>1.047365424485008</v>
+        <v>1.003090250507128</v>
       </c>
       <c r="L12">
-        <v>0.9503847246480529</v>
+        <v>1.001460386284974</v>
       </c>
       <c r="M12">
-        <v>1.005982873460956</v>
+        <v>0.9967164157990271</v>
       </c>
       <c r="N12">
-        <v>1.005982873460956</v>
+        <v>0.9967164157990271</v>
       </c>
       <c r="O12">
-        <v>1.022097050550311</v>
+        <v>0.9964181265201018</v>
       </c>
       <c r="P12">
-        <v>1.01977705713564</v>
+        <v>0.998841027368394</v>
       </c>
       <c r="Q12">
-        <v>1.01977705713564</v>
+        <v>0.9988410273683942</v>
       </c>
       <c r="R12">
-        <v>1.026674148972982</v>
+        <v>0.9999033331530776</v>
       </c>
       <c r="S12">
-        <v>1.026674148972982</v>
+        <v>0.9999033331530776</v>
       </c>
       <c r="T12">
-        <v>0.9909001908124306</v>
+        <v>0.9996779668517446</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.015878292789818</v>
+        <v>0.9864994304398526</v>
       </c>
       <c r="D13">
-        <v>1.014575212475614</v>
+        <v>1.011669746439174</v>
       </c>
       <c r="E13">
-        <v>0.9611230171532089</v>
+        <v>1.010495997370317</v>
       </c>
       <c r="F13">
-        <v>0.991689203474276</v>
+        <v>1.006273696040644</v>
       </c>
       <c r="G13">
-        <v>1.042806609087952</v>
+        <v>0.9738490462405809</v>
       </c>
       <c r="H13">
-        <v>1.004267878115692</v>
+        <v>1.004536126182958</v>
       </c>
       <c r="I13">
-        <v>1.042806609087952</v>
+        <v>0.9738490462405809</v>
       </c>
       <c r="J13">
-        <v>0.9611230171532089</v>
+        <v>1.010495997370317</v>
       </c>
       <c r="K13">
-        <v>0.9611230171532089</v>
+        <v>1.010495997370317</v>
       </c>
       <c r="L13">
-        <v>1.004267878115692</v>
+        <v>1.004536126182958</v>
       </c>
       <c r="M13">
-        <v>1.023537243601822</v>
+        <v>0.9891925862117695</v>
       </c>
       <c r="N13">
-        <v>1.023537243601822</v>
+        <v>0.9891925862117695</v>
       </c>
       <c r="O13">
-        <v>1.020984259997821</v>
+        <v>0.9882948676211306</v>
       </c>
       <c r="P13">
-        <v>1.002732501452284</v>
+        <v>0.9962937232646188</v>
       </c>
       <c r="Q13">
-        <v>1.002732501452284</v>
+        <v>0.9962937232646188</v>
       </c>
       <c r="R13">
-        <v>0.9923301303775155</v>
+        <v>0.9998442917910434</v>
       </c>
       <c r="S13">
-        <v>0.9923301303775155</v>
+        <v>0.9998442917910434</v>
       </c>
       <c r="T13">
-        <v>1.00505670218276</v>
+        <v>0.9988873404522544</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.166973523183243</v>
+        <v>0.9772949079589529</v>
       </c>
       <c r="D14">
-        <v>0.7600674521479991</v>
+        <v>1.018415712142471</v>
       </c>
       <c r="E14">
-        <v>0.9524672683731991</v>
+        <v>1.018513968289184</v>
       </c>
       <c r="F14">
-        <v>0.9268160727153568</v>
+        <v>1.010652659426871</v>
       </c>
       <c r="G14">
-        <v>1.277945304197526</v>
+        <v>0.9550709943494415</v>
       </c>
       <c r="H14">
-        <v>0.9162600194777768</v>
+        <v>1.007417546099393</v>
       </c>
       <c r="I14">
-        <v>1.277945304197526</v>
+        <v>0.9550709943494415</v>
       </c>
       <c r="J14">
-        <v>0.9524672683731991</v>
+        <v>1.018513968289184</v>
       </c>
       <c r="K14">
-        <v>0.9524672683731991</v>
+        <v>1.018513968289184</v>
       </c>
       <c r="L14">
-        <v>0.9162600194777768</v>
+        <v>1.007417546099393</v>
       </c>
       <c r="M14">
-        <v>1.097102661837651</v>
+        <v>0.9812442702244172</v>
       </c>
       <c r="N14">
-        <v>1.097102661837651</v>
+        <v>0.9812442702244172</v>
       </c>
       <c r="O14">
-        <v>1.120392948952849</v>
+        <v>0.9799278161359291</v>
       </c>
       <c r="P14">
-        <v>1.048890864016167</v>
+        <v>0.993667502912673</v>
       </c>
       <c r="Q14">
-        <v>1.048890864016167</v>
+        <v>0.993667502912673</v>
       </c>
       <c r="R14">
-        <v>1.024784965105425</v>
+        <v>0.9998791192568008</v>
       </c>
       <c r="S14">
-        <v>1.024784965105425</v>
+        <v>0.9998791192568008</v>
       </c>
       <c r="T14">
-        <v>1.000088273349183</v>
+        <v>0.9978942980443857</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.043671968998775</v>
+        <v>0.9918424219045031</v>
       </c>
       <c r="D15">
-        <v>0.9638890393697279</v>
+        <v>1.006399795468471</v>
       </c>
       <c r="E15">
-        <v>0.9702584587703185</v>
+        <v>1.006838913780032</v>
       </c>
       <c r="F15">
-        <v>0.978199097757483</v>
+        <v>1.003836067317458</v>
       </c>
       <c r="G15">
-        <v>1.097001383482977</v>
+        <v>0.9837744724610836</v>
       </c>
       <c r="H15">
-        <v>0.9814668414772103</v>
+        <v>1.00260032796696</v>
       </c>
       <c r="I15">
-        <v>1.097001383482977</v>
+        <v>0.9837744724610836</v>
       </c>
       <c r="J15">
-        <v>0.9702584587703185</v>
+        <v>1.006838913780032</v>
       </c>
       <c r="K15">
-        <v>0.9702584587703185</v>
+        <v>1.006838913780032</v>
       </c>
       <c r="L15">
-        <v>0.9814668414772103</v>
+        <v>1.00260032796696</v>
       </c>
       <c r="M15">
-        <v>1.039234112480094</v>
+        <v>0.9931874002140217</v>
       </c>
       <c r="N15">
-        <v>1.039234112480094</v>
+        <v>0.9931874002140217</v>
       </c>
       <c r="O15">
-        <v>1.040713397986321</v>
+        <v>0.9927390741108488</v>
       </c>
       <c r="P15">
-        <v>1.016242227910169</v>
+        <v>0.997737904736025</v>
       </c>
       <c r="Q15">
-        <v>1.016242227910169</v>
+        <v>0.9977379047360251</v>
       </c>
       <c r="R15">
-        <v>1.004746285625206</v>
+        <v>1.000013156997027</v>
       </c>
       <c r="S15">
-        <v>1.004746285625206</v>
+        <v>1.000013156997027</v>
       </c>
       <c r="T15">
-        <v>1.005747798309415</v>
+        <v>0.9992153331497512</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8412527806846253</v>
+        <v>0.9842640444774235</v>
       </c>
       <c r="D16">
-        <v>1.132072761061525</v>
+        <v>1.012502096520384</v>
       </c>
       <c r="E16">
-        <v>1.12628469560629</v>
+        <v>1.013027561790472</v>
       </c>
       <c r="F16">
-        <v>1.074399487405704</v>
+        <v>1.007400390631225</v>
       </c>
       <c r="G16">
-        <v>0.6869114745846557</v>
+        <v>0.96870907853638</v>
       </c>
       <c r="H16">
-        <v>1.053047544692202</v>
+        <v>1.005084681175477</v>
       </c>
       <c r="I16">
-        <v>0.6869114745846557</v>
+        <v>0.96870907853638</v>
       </c>
       <c r="J16">
-        <v>1.12628469560629</v>
+        <v>1.013027561790472</v>
       </c>
       <c r="K16">
-        <v>1.12628469560629</v>
+        <v>1.013027561790472</v>
       </c>
       <c r="L16">
-        <v>1.053047544692202</v>
+        <v>1.005084681175477</v>
       </c>
       <c r="M16">
-        <v>0.8699795096384288</v>
+        <v>0.9868968798559286</v>
       </c>
       <c r="N16">
-        <v>0.8699795096384288</v>
+        <v>0.9868968798559286</v>
       </c>
       <c r="O16">
-        <v>0.8604039333204944</v>
+        <v>0.9860192680630936</v>
       </c>
       <c r="P16">
-        <v>0.9554145716277157</v>
+        <v>0.9956071071674432</v>
       </c>
       <c r="Q16">
-        <v>0.9554145716277157</v>
+        <v>0.9956071071674432</v>
       </c>
       <c r="R16">
-        <v>0.9981321026223592</v>
+        <v>0.9999622208232004</v>
       </c>
       <c r="S16">
-        <v>0.9981321026223592</v>
+        <v>0.9999622208232004</v>
       </c>
       <c r="T16">
-        <v>0.9856614573391672</v>
+        <v>0.9984979755218938</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8707796913980995</v>
+        <v>0.9698437017588324</v>
       </c>
       <c r="D17">
-        <v>1.12601692469481</v>
+        <v>1.024240994542344</v>
       </c>
       <c r="E17">
-        <v>1.086846563712503</v>
+        <v>1.024773521598876</v>
       </c>
       <c r="F17">
-        <v>1.059720975360376</v>
+        <v>1.014156814841595</v>
       </c>
       <c r="G17">
-        <v>0.7537688092651584</v>
+        <v>0.9402629801003477</v>
       </c>
       <c r="H17">
-        <v>1.048558178329298</v>
+        <v>1.009787798766851</v>
       </c>
       <c r="I17">
-        <v>0.7537688092651584</v>
+        <v>0.9402629801003477</v>
       </c>
       <c r="J17">
-        <v>1.086846563712503</v>
+        <v>1.024773521598876</v>
       </c>
       <c r="K17">
-        <v>1.086846563712503</v>
+        <v>1.024773521598876</v>
       </c>
       <c r="L17">
-        <v>1.048558178329298</v>
+        <v>1.009787798766851</v>
       </c>
       <c r="M17">
-        <v>0.901163493797228</v>
+        <v>0.9750253894335995</v>
       </c>
       <c r="N17">
-        <v>0.901163493797228</v>
+        <v>0.9750253894335995</v>
       </c>
       <c r="O17">
-        <v>0.8910355596641852</v>
+        <v>0.9732981602086772</v>
       </c>
       <c r="P17">
-        <v>0.9630578504356531</v>
+        <v>0.9916081001553584</v>
       </c>
       <c r="Q17">
-        <v>0.9630578504356531</v>
+        <v>0.9916081001553584</v>
       </c>
       <c r="R17">
-        <v>0.9940050287548656</v>
+        <v>0.9998994555162378</v>
       </c>
       <c r="S17">
-        <v>0.9940050287548656</v>
+        <v>0.9998994555162378</v>
       </c>
       <c r="T17">
-        <v>0.9909485237933741</v>
+        <v>0.997177635268141</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9302347801625535</v>
+        <v>0.9557448732995698</v>
       </c>
       <c r="D18">
-        <v>1.11285754680115</v>
+        <v>1.035713028661208</v>
       </c>
       <c r="E18">
-        <v>1.008240394774571</v>
+        <v>1.036193762904677</v>
       </c>
       <c r="F18">
-        <v>1.030213495597456</v>
+        <v>1.020763241075661</v>
       </c>
       <c r="G18">
-        <v>0.8879122859336369</v>
+        <v>0.9125968396859747</v>
       </c>
       <c r="H18">
-        <v>1.039255922777792</v>
+        <v>1.014413216890393</v>
       </c>
       <c r="I18">
-        <v>0.8879122859336369</v>
+        <v>0.9125968396859747</v>
       </c>
       <c r="J18">
-        <v>1.008240394774571</v>
+        <v>1.036193762904677</v>
       </c>
       <c r="K18">
-        <v>1.008240394774571</v>
+        <v>1.036193762904677</v>
       </c>
       <c r="L18">
-        <v>1.039255922777792</v>
+        <v>1.014413216890393</v>
       </c>
       <c r="M18">
-        <v>0.9635841043557145</v>
+        <v>0.9635050282881836</v>
       </c>
       <c r="N18">
-        <v>0.9635841043557145</v>
+        <v>0.9635050282881836</v>
       </c>
       <c r="O18">
-        <v>0.9524676629579941</v>
+        <v>0.9609183099586457</v>
       </c>
       <c r="P18">
-        <v>0.9784695344953335</v>
+        <v>0.9877346064936815</v>
       </c>
       <c r="Q18">
-        <v>0.9784695344953335</v>
+        <v>0.9877346064936815</v>
       </c>
       <c r="R18">
-        <v>0.9859122495651429</v>
+        <v>0.9998493955964304</v>
       </c>
       <c r="S18">
-        <v>0.9859122495651429</v>
+        <v>0.9998493955964304</v>
       </c>
       <c r="T18">
-        <v>1.001452404341193</v>
+        <v>0.9959041604195805</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9237142865563233</v>
+        <v>0.9994667773179094</v>
       </c>
       <c r="D19">
-        <v>1.132952605842234</v>
+        <v>1.000949924358131</v>
       </c>
       <c r="E19">
-        <v>1.001582088071042</v>
+        <v>0.9999896628964965</v>
       </c>
       <c r="F19">
-        <v>1.032415295885473</v>
+        <v>1.000226657278724</v>
       </c>
       <c r="G19">
-        <v>0.8832880061995456</v>
+        <v>0.9991846992147159</v>
       </c>
       <c r="H19">
-        <v>1.0451038599126</v>
+        <v>1.000324185855903</v>
       </c>
       <c r="I19">
-        <v>0.8832880061995456</v>
+        <v>0.9991846992147159</v>
       </c>
       <c r="J19">
-        <v>1.001582088071042</v>
+        <v>0.9999896628964965</v>
       </c>
       <c r="K19">
-        <v>1.001582088071042</v>
+        <v>0.9999896628964965</v>
       </c>
       <c r="L19">
-        <v>1.0451038599126</v>
+        <v>1.000324185855903</v>
       </c>
       <c r="M19">
-        <v>0.9641959330560728</v>
+        <v>0.9997544425353093</v>
       </c>
       <c r="N19">
-        <v>0.9641959330560728</v>
+        <v>0.9997544425353093</v>
       </c>
       <c r="O19">
-        <v>0.9507020508894897</v>
+        <v>0.9996585541295094</v>
       </c>
       <c r="P19">
-        <v>0.976657984727729</v>
+        <v>0.9998328493223717</v>
       </c>
       <c r="Q19">
-        <v>0.976657984727729</v>
+        <v>0.9998328493223717</v>
       </c>
       <c r="R19">
-        <v>0.9828890105635573</v>
+        <v>0.999872052715903</v>
       </c>
       <c r="S19">
-        <v>0.9828890105635573</v>
+        <v>0.999872052715903</v>
       </c>
       <c r="T19">
-        <v>1.003176023744536</v>
+        <v>1.000023651153647</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999457238327766</v>
+        <v>0.9986888801574336</v>
       </c>
       <c r="D20">
-        <v>0.9996648830332028</v>
+        <v>1.002335978380831</v>
       </c>
       <c r="E20">
-        <v>1.000461723850728</v>
+        <v>0.999967324162344</v>
       </c>
       <c r="F20">
-        <v>1.000024499648771</v>
+        <v>1.000558773319281</v>
       </c>
       <c r="G20">
-        <v>0.9998196396670407</v>
+        <v>0.9979864763243348</v>
       </c>
       <c r="H20">
-        <v>0.9998445720101743</v>
+        <v>1.00080216826188</v>
       </c>
       <c r="I20">
-        <v>0.9998196396670407</v>
+        <v>0.9979864763243348</v>
       </c>
       <c r="J20">
-        <v>1.000461723850728</v>
+        <v>0.999967324162344</v>
       </c>
       <c r="K20">
-        <v>1.000461723850728</v>
+        <v>0.999967324162344</v>
       </c>
       <c r="L20">
-        <v>0.9998445720101743</v>
+        <v>1.00080216826188</v>
       </c>
       <c r="M20">
-        <v>0.9998321058386075</v>
+        <v>0.9993943222931072</v>
       </c>
       <c r="N20">
-        <v>0.9998321058386075</v>
+        <v>0.9993943222931072</v>
       </c>
       <c r="O20">
-        <v>0.9998699785033306</v>
+        <v>0.9991591749145493</v>
       </c>
       <c r="P20">
-        <v>1.000041978509314</v>
+        <v>0.9995853229161861</v>
       </c>
       <c r="Q20">
-        <v>1.000041978509314</v>
+        <v>0.9995853229161861</v>
       </c>
       <c r="R20">
-        <v>1.000146914844668</v>
+        <v>0.9996808232277256</v>
       </c>
       <c r="S20">
-        <v>1.000146914844668</v>
+        <v>0.9996808232277256</v>
       </c>
       <c r="T20">
-        <v>0.9999601736737823</v>
+        <v>1.000056600101017</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9993440318874688</v>
+        <v>0.99824405815588</v>
       </c>
       <c r="D21">
-        <v>1.001972677979694</v>
+        <v>1.003106041707512</v>
       </c>
       <c r="E21">
-        <v>0.9991937279891175</v>
+        <v>0.999955502340659</v>
       </c>
       <c r="F21">
-        <v>1.000262070145457</v>
+        <v>1.000753108625628</v>
       </c>
       <c r="G21">
-        <v>0.9992638028065871</v>
+        <v>0.9972747511002851</v>
       </c>
       <c r="H21">
-        <v>1.000701717046461</v>
+        <v>1.00108134056075</v>
       </c>
       <c r="I21">
-        <v>0.9992638028065871</v>
+        <v>0.9972747511002851</v>
       </c>
       <c r="J21">
-        <v>0.9991937279891175</v>
+        <v>0.999955502340659</v>
       </c>
       <c r="K21">
-        <v>0.9991937279891175</v>
+        <v>0.999955502340659</v>
       </c>
       <c r="L21">
-        <v>1.000701717046461</v>
+        <v>1.00108134056075</v>
       </c>
       <c r="M21">
-        <v>0.9999827599265239</v>
+        <v>0.9991780458305177</v>
       </c>
       <c r="N21">
-        <v>0.9999827599265239</v>
+        <v>0.9991780458305177</v>
       </c>
       <c r="O21">
-        <v>0.9997698505801722</v>
+        <v>0.9988667166056384</v>
       </c>
       <c r="P21">
-        <v>0.9997197492807217</v>
+        <v>0.9994371980005647</v>
       </c>
       <c r="Q21">
-        <v>0.9997197492807217</v>
+        <v>0.9994371980005647</v>
       </c>
       <c r="R21">
-        <v>0.9995882439578206</v>
+        <v>0.9995667740855882</v>
       </c>
       <c r="S21">
-        <v>0.9995882439578206</v>
+        <v>0.9995667740855882</v>
       </c>
       <c r="T21">
-        <v>1.000123004642464</v>
+        <v>1.000069133748452</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9974133763440092</v>
+        <v>0.996140503297796</v>
       </c>
       <c r="D22">
-        <v>1.000280968666016</v>
+        <v>1.006819663608049</v>
       </c>
       <c r="E22">
-        <v>1.00391065612619</v>
+        <v>0.9999267370251791</v>
       </c>
       <c r="F22">
-        <v>1.001250424021589</v>
+        <v>1.00165236409952</v>
       </c>
       <c r="G22">
-        <v>0.994277471421872</v>
+        <v>0.994020980395496</v>
       </c>
       <c r="H22">
-        <v>1.000155676881875</v>
+        <v>1.002362499577881</v>
       </c>
       <c r="I22">
-        <v>0.994277471421872</v>
+        <v>0.994020980395496</v>
       </c>
       <c r="J22">
-        <v>1.00391065612619</v>
+        <v>0.9999267370251791</v>
       </c>
       <c r="K22">
-        <v>1.00391065612619</v>
+        <v>0.9999267370251791</v>
       </c>
       <c r="L22">
-        <v>1.000155676881875</v>
+        <v>1.002362499577881</v>
       </c>
       <c r="M22">
-        <v>0.9972165741518735</v>
+        <v>0.9981917399866883</v>
       </c>
       <c r="N22">
-        <v>0.9972165741518735</v>
+        <v>0.9981917399866883</v>
       </c>
       <c r="O22">
-        <v>0.9972821748825854</v>
+        <v>0.9975079944237243</v>
       </c>
       <c r="P22">
-        <v>0.9994479348099791</v>
+        <v>0.998770072332852</v>
       </c>
       <c r="Q22">
-        <v>0.9994479348099791</v>
+        <v>0.998770072332852</v>
       </c>
       <c r="R22">
-        <v>1.000563615139032</v>
+        <v>0.9990592385059337</v>
       </c>
       <c r="S22">
-        <v>1.000563615139032</v>
+        <v>0.9990592385059337</v>
       </c>
       <c r="T22">
-        <v>0.9995480955769253</v>
+        <v>1.000153791333987</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9937826718501237</v>
+      </c>
+      <c r="D23">
+        <v>1.01090116904997</v>
+      </c>
+      <c r="E23">
+        <v>0.9999138114793991</v>
+      </c>
+      <c r="F23">
+        <v>1.002674014861147</v>
+      </c>
+      <c r="G23">
+        <v>0.9902800899873577</v>
+      </c>
+      <c r="H23">
+        <v>1.003809899077512</v>
+      </c>
+      <c r="I23">
+        <v>0.9902800899873577</v>
+      </c>
+      <c r="J23">
+        <v>0.9999138114793991</v>
+      </c>
+      <c r="K23">
+        <v>0.9999138114793991</v>
+      </c>
+      <c r="L23">
+        <v>1.003809899077512</v>
+      </c>
+      <c r="M23">
+        <v>0.9970449945324347</v>
+      </c>
+      <c r="N23">
+        <v>0.9970449945324347</v>
+      </c>
+      <c r="O23">
+        <v>0.9959575536383311</v>
+      </c>
+      <c r="P23">
+        <v>0.9980012668480894</v>
+      </c>
+      <c r="Q23">
+        <v>0.9980012668480894</v>
+      </c>
+      <c r="R23">
+        <v>0.9984794030059169</v>
+      </c>
+      <c r="S23">
+        <v>0.9984794030059169</v>
+      </c>
+      <c r="T23">
+        <v>1.000226942717585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.05432540472902</v>
+      </c>
+      <c r="D24">
+        <v>0.8530855837407341</v>
+      </c>
+      <c r="E24">
+        <v>1.047365424485008</v>
+      </c>
+      <c r="F24">
+        <v>0.9786589849979106</v>
+      </c>
+      <c r="G24">
+        <v>1.061581022273859</v>
+      </c>
+      <c r="H24">
+        <v>0.9503847246480529</v>
+      </c>
+      <c r="I24">
+        <v>1.061581022273859</v>
+      </c>
+      <c r="J24">
+        <v>1.047365424485008</v>
+      </c>
+      <c r="K24">
+        <v>1.047365424485008</v>
+      </c>
+      <c r="L24">
+        <v>0.9503847246480529</v>
+      </c>
+      <c r="M24">
+        <v>1.005982873460956</v>
+      </c>
+      <c r="N24">
+        <v>1.005982873460956</v>
+      </c>
+      <c r="O24">
+        <v>1.022097050550311</v>
+      </c>
+      <c r="P24">
+        <v>1.01977705713564</v>
+      </c>
+      <c r="Q24">
+        <v>1.01977705713564</v>
+      </c>
+      <c r="R24">
+        <v>1.026674148972982</v>
+      </c>
+      <c r="S24">
+        <v>1.026674148972982</v>
+      </c>
+      <c r="T24">
+        <v>0.9909001908124306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.015878292789818</v>
+      </c>
+      <c r="D25">
+        <v>1.014575212475614</v>
+      </c>
+      <c r="E25">
+        <v>0.9611230171532089</v>
+      </c>
+      <c r="F25">
+        <v>0.991689203474276</v>
+      </c>
+      <c r="G25">
+        <v>1.042806609087952</v>
+      </c>
+      <c r="H25">
+        <v>1.004267878115692</v>
+      </c>
+      <c r="I25">
+        <v>1.042806609087952</v>
+      </c>
+      <c r="J25">
+        <v>0.9611230171532089</v>
+      </c>
+      <c r="K25">
+        <v>0.9611230171532089</v>
+      </c>
+      <c r="L25">
+        <v>1.004267878115692</v>
+      </c>
+      <c r="M25">
+        <v>1.023537243601822</v>
+      </c>
+      <c r="N25">
+        <v>1.023537243601822</v>
+      </c>
+      <c r="O25">
+        <v>1.020984259997821</v>
+      </c>
+      <c r="P25">
+        <v>1.002732501452284</v>
+      </c>
+      <c r="Q25">
+        <v>1.002732501452284</v>
+      </c>
+      <c r="R25">
+        <v>0.9923301303775155</v>
+      </c>
+      <c r="S25">
+        <v>0.9923301303775155</v>
+      </c>
+      <c r="T25">
+        <v>1.00505670218276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.166973523183243</v>
+      </c>
+      <c r="D26">
+        <v>0.7600674521479991</v>
+      </c>
+      <c r="E26">
+        <v>0.9524672683731991</v>
+      </c>
+      <c r="F26">
+        <v>0.9268160727153568</v>
+      </c>
+      <c r="G26">
+        <v>1.277945304197526</v>
+      </c>
+      <c r="H26">
+        <v>0.9162600194777768</v>
+      </c>
+      <c r="I26">
+        <v>1.277945304197526</v>
+      </c>
+      <c r="J26">
+        <v>0.9524672683731991</v>
+      </c>
+      <c r="K26">
+        <v>0.9524672683731991</v>
+      </c>
+      <c r="L26">
+        <v>0.9162600194777768</v>
+      </c>
+      <c r="M26">
+        <v>1.097102661837651</v>
+      </c>
+      <c r="N26">
+        <v>1.097102661837651</v>
+      </c>
+      <c r="O26">
+        <v>1.120392948952849</v>
+      </c>
+      <c r="P26">
+        <v>1.048890864016167</v>
+      </c>
+      <c r="Q26">
+        <v>1.048890864016167</v>
+      </c>
+      <c r="R26">
+        <v>1.024784965105425</v>
+      </c>
+      <c r="S26">
+        <v>1.024784965105425</v>
+      </c>
+      <c r="T26">
+        <v>1.000088273349183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.043671968998775</v>
+      </c>
+      <c r="D27">
+        <v>0.9638890393697279</v>
+      </c>
+      <c r="E27">
+        <v>0.9702584587703185</v>
+      </c>
+      <c r="F27">
+        <v>0.978199097757483</v>
+      </c>
+      <c r="G27">
+        <v>1.097001383482977</v>
+      </c>
+      <c r="H27">
+        <v>0.9814668414772103</v>
+      </c>
+      <c r="I27">
+        <v>1.097001383482977</v>
+      </c>
+      <c r="J27">
+        <v>0.9702584587703185</v>
+      </c>
+      <c r="K27">
+        <v>0.9702584587703185</v>
+      </c>
+      <c r="L27">
+        <v>0.9814668414772103</v>
+      </c>
+      <c r="M27">
+        <v>1.039234112480094</v>
+      </c>
+      <c r="N27">
+        <v>1.039234112480094</v>
+      </c>
+      <c r="O27">
+        <v>1.040713397986321</v>
+      </c>
+      <c r="P27">
+        <v>1.016242227910169</v>
+      </c>
+      <c r="Q27">
+        <v>1.016242227910169</v>
+      </c>
+      <c r="R27">
+        <v>1.004746285625206</v>
+      </c>
+      <c r="S27">
+        <v>1.004746285625206</v>
+      </c>
+      <c r="T27">
+        <v>1.005747798309415</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.8412527806846253</v>
+      </c>
+      <c r="D28">
+        <v>1.132072761061525</v>
+      </c>
+      <c r="E28">
+        <v>1.12628469560629</v>
+      </c>
+      <c r="F28">
+        <v>1.074399487405704</v>
+      </c>
+      <c r="G28">
+        <v>0.6869114745846557</v>
+      </c>
+      <c r="H28">
+        <v>1.053047544692202</v>
+      </c>
+      <c r="I28">
+        <v>0.6869114745846557</v>
+      </c>
+      <c r="J28">
+        <v>1.12628469560629</v>
+      </c>
+      <c r="K28">
+        <v>1.12628469560629</v>
+      </c>
+      <c r="L28">
+        <v>1.053047544692202</v>
+      </c>
+      <c r="M28">
+        <v>0.8699795096384288</v>
+      </c>
+      <c r="N28">
+        <v>0.8699795096384288</v>
+      </c>
+      <c r="O28">
+        <v>0.8604039333204944</v>
+      </c>
+      <c r="P28">
+        <v>0.9554145716277157</v>
+      </c>
+      <c r="Q28">
+        <v>0.9554145716277157</v>
+      </c>
+      <c r="R28">
+        <v>0.9981321026223592</v>
+      </c>
+      <c r="S28">
+        <v>0.9981321026223592</v>
+      </c>
+      <c r="T28">
+        <v>0.9856614573391672</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.8707796913980995</v>
+      </c>
+      <c r="D29">
+        <v>1.12601692469481</v>
+      </c>
+      <c r="E29">
+        <v>1.086846563712503</v>
+      </c>
+      <c r="F29">
+        <v>1.059720975360376</v>
+      </c>
+      <c r="G29">
+        <v>0.7537688092651584</v>
+      </c>
+      <c r="H29">
+        <v>1.048558178329298</v>
+      </c>
+      <c r="I29">
+        <v>0.7537688092651584</v>
+      </c>
+      <c r="J29">
+        <v>1.086846563712503</v>
+      </c>
+      <c r="K29">
+        <v>1.086846563712503</v>
+      </c>
+      <c r="L29">
+        <v>1.048558178329298</v>
+      </c>
+      <c r="M29">
+        <v>0.901163493797228</v>
+      </c>
+      <c r="N29">
+        <v>0.901163493797228</v>
+      </c>
+      <c r="O29">
+        <v>0.8910355596641852</v>
+      </c>
+      <c r="P29">
+        <v>0.9630578504356531</v>
+      </c>
+      <c r="Q29">
+        <v>0.9630578504356531</v>
+      </c>
+      <c r="R29">
+        <v>0.9940050287548656</v>
+      </c>
+      <c r="S29">
+        <v>0.9940050287548656</v>
+      </c>
+      <c r="T29">
+        <v>0.9909485237933741</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9302347801625535</v>
+      </c>
+      <c r="D30">
+        <v>1.11285754680115</v>
+      </c>
+      <c r="E30">
+        <v>1.008240394774571</v>
+      </c>
+      <c r="F30">
+        <v>1.030213495597456</v>
+      </c>
+      <c r="G30">
+        <v>0.8879122859336369</v>
+      </c>
+      <c r="H30">
+        <v>1.039255922777792</v>
+      </c>
+      <c r="I30">
+        <v>0.8879122859336369</v>
+      </c>
+      <c r="J30">
+        <v>1.008240394774571</v>
+      </c>
+      <c r="K30">
+        <v>1.008240394774571</v>
+      </c>
+      <c r="L30">
+        <v>1.039255922777792</v>
+      </c>
+      <c r="M30">
+        <v>0.9635841043557145</v>
+      </c>
+      <c r="N30">
+        <v>0.9635841043557145</v>
+      </c>
+      <c r="O30">
+        <v>0.9524676629579941</v>
+      </c>
+      <c r="P30">
+        <v>0.9784695344953335</v>
+      </c>
+      <c r="Q30">
+        <v>0.9784695344953335</v>
+      </c>
+      <c r="R30">
+        <v>0.9859122495651429</v>
+      </c>
+      <c r="S30">
+        <v>0.9859122495651429</v>
+      </c>
+      <c r="T30">
+        <v>1.001452404341193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9237142865563233</v>
+      </c>
+      <c r="D31">
+        <v>1.132952605842234</v>
+      </c>
+      <c r="E31">
+        <v>1.001582088071042</v>
+      </c>
+      <c r="F31">
+        <v>1.032415295885473</v>
+      </c>
+      <c r="G31">
+        <v>0.8832880061995456</v>
+      </c>
+      <c r="H31">
+        <v>1.0451038599126</v>
+      </c>
+      <c r="I31">
+        <v>0.8832880061995456</v>
+      </c>
+      <c r="J31">
+        <v>1.001582088071042</v>
+      </c>
+      <c r="K31">
+        <v>1.001582088071042</v>
+      </c>
+      <c r="L31">
+        <v>1.0451038599126</v>
+      </c>
+      <c r="M31">
+        <v>0.9641959330560728</v>
+      </c>
+      <c r="N31">
+        <v>0.9641959330560728</v>
+      </c>
+      <c r="O31">
+        <v>0.9507020508894897</v>
+      </c>
+      <c r="P31">
+        <v>0.976657984727729</v>
+      </c>
+      <c r="Q31">
+        <v>0.976657984727729</v>
+      </c>
+      <c r="R31">
+        <v>0.9828890105635573</v>
+      </c>
+      <c r="S31">
+        <v>0.9828890105635573</v>
+      </c>
+      <c r="T31">
+        <v>1.003176023744536</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.8142460550684927</v>
+      </c>
+      <c r="D32">
+        <v>1.136855227123288</v>
+      </c>
+      <c r="E32">
+        <v>1.16262111369863</v>
+      </c>
+      <c r="F32">
+        <v>1.087940121917808</v>
+      </c>
+      <c r="G32">
+        <v>0.6249135627397261</v>
+      </c>
+      <c r="H32">
+        <v>1.057207196164384</v>
+      </c>
+      <c r="I32">
+        <v>0.6249135627397261</v>
+      </c>
+      <c r="J32">
+        <v>1.16262111369863</v>
+      </c>
+      <c r="K32">
+        <v>1.16262111369863</v>
+      </c>
+      <c r="L32">
+        <v>1.057207196164384</v>
+      </c>
+      <c r="M32">
+        <v>0.841060379452055</v>
+      </c>
+      <c r="N32">
+        <v>0.841060379452055</v>
+      </c>
+      <c r="O32">
+        <v>0.8321222713242009</v>
+      </c>
+      <c r="P32">
+        <v>0.9482472908675801</v>
+      </c>
+      <c r="Q32">
+        <v>0.94824729086758</v>
+      </c>
+      <c r="R32">
+        <v>1.001840746575343</v>
+      </c>
+      <c r="S32">
+        <v>1.001840746575343</v>
+      </c>
+      <c r="T32">
+        <v>0.9806305461187215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9848485442105263</v>
+      </c>
+      <c r="D33">
+        <v>1.006473216315789</v>
+      </c>
+      <c r="E33">
+        <v>1.012281419473684</v>
+      </c>
+      <c r="F33">
+        <v>1.008679703684211</v>
+      </c>
+      <c r="G33">
+        <v>0.9565757552631581</v>
+      </c>
+      <c r="H33">
+        <v>1.007197509473684</v>
+      </c>
+      <c r="I33">
+        <v>0.9565757552631581</v>
+      </c>
+      <c r="J33">
+        <v>1.012281419473684</v>
+      </c>
+      <c r="K33">
+        <v>1.012281419473684</v>
+      </c>
+      <c r="L33">
+        <v>1.007197509473684</v>
+      </c>
+      <c r="M33">
+        <v>0.9818866323684212</v>
+      </c>
+      <c r="N33">
+        <v>0.9818866323684212</v>
+      </c>
+      <c r="O33">
+        <v>0.9828739363157896</v>
+      </c>
+      <c r="P33">
+        <v>0.9920182280701756</v>
+      </c>
+      <c r="Q33">
+        <v>0.9920182280701756</v>
+      </c>
+      <c r="R33">
+        <v>0.9970840259210528</v>
+      </c>
+      <c r="S33">
+        <v>0.9970840259210528</v>
+      </c>
+      <c r="T33">
+        <v>0.9960093580701755</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9202715110526314</v>
+      </c>
+      <c r="D34">
+        <v>1.19402171368421</v>
+      </c>
+      <c r="E34">
+        <v>0.9576723063157895</v>
+      </c>
+      <c r="F34">
+        <v>1.030432424210526</v>
+      </c>
+      <c r="G34">
+        <v>0.9119195921052632</v>
+      </c>
+      <c r="H34">
+        <v>1.060374860526316</v>
+      </c>
+      <c r="I34">
+        <v>0.9119195921052632</v>
+      </c>
+      <c r="J34">
+        <v>0.9576723063157895</v>
+      </c>
+      <c r="K34">
+        <v>0.9576723063157895</v>
+      </c>
+      <c r="L34">
+        <v>1.060374860526316</v>
+      </c>
+      <c r="M34">
+        <v>0.9861472263157894</v>
+      </c>
+      <c r="N34">
+        <v>0.9861472263157894</v>
+      </c>
+      <c r="O34">
+        <v>0.9641886545614033</v>
+      </c>
+      <c r="P34">
+        <v>0.9766555863157894</v>
+      </c>
+      <c r="Q34">
+        <v>0.9766555863157894</v>
+      </c>
+      <c r="R34">
+        <v>0.9719097663157894</v>
+      </c>
+      <c r="S34">
+        <v>0.9719097663157894</v>
+      </c>
+      <c r="T34">
+        <v>1.012448734649123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.7230491056245539</v>
+      </c>
+      <c r="D35">
+        <v>1.497066971720851</v>
+      </c>
+      <c r="E35">
+        <v>0.9941423388466444</v>
+      </c>
+      <c r="F35">
+        <v>1.117006477192431</v>
+      </c>
+      <c r="G35">
+        <v>0.5815530028432495</v>
+      </c>
+      <c r="H35">
+        <v>1.167567870336226</v>
+      </c>
+      <c r="I35">
+        <v>0.5815530028432495</v>
+      </c>
+      <c r="J35">
+        <v>0.9941423388466444</v>
+      </c>
+      <c r="K35">
+        <v>0.9941423388466444</v>
+      </c>
+      <c r="L35">
+        <v>1.167567870336226</v>
+      </c>
+      <c r="M35">
+        <v>0.8745604365897379</v>
+      </c>
+      <c r="N35">
+        <v>0.8745604365897379</v>
+      </c>
+      <c r="O35">
+        <v>0.8240566596013433</v>
+      </c>
+      <c r="P35">
+        <v>0.9144210706753734</v>
+      </c>
+      <c r="Q35">
+        <v>0.9144210706753734</v>
+      </c>
+      <c r="R35">
+        <v>0.934351387718191</v>
+      </c>
+      <c r="S35">
+        <v>0.934351387718191</v>
+      </c>
+      <c r="T35">
+        <v>1.013397627760659</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999457238327766</v>
+      </c>
+      <c r="D36">
+        <v>0.9996648830332028</v>
+      </c>
+      <c r="E36">
+        <v>1.000461723850728</v>
+      </c>
+      <c r="F36">
+        <v>1.000024499648771</v>
+      </c>
+      <c r="G36">
+        <v>0.9998196396670407</v>
+      </c>
+      <c r="H36">
+        <v>0.9998445720101743</v>
+      </c>
+      <c r="I36">
+        <v>0.9998196396670407</v>
+      </c>
+      <c r="J36">
+        <v>1.000461723850728</v>
+      </c>
+      <c r="K36">
+        <v>1.000461723850728</v>
+      </c>
+      <c r="L36">
+        <v>0.9998445720101743</v>
+      </c>
+      <c r="M36">
+        <v>0.9998321058386075</v>
+      </c>
+      <c r="N36">
+        <v>0.9998321058386075</v>
+      </c>
+      <c r="O36">
+        <v>0.9998699785033306</v>
+      </c>
+      <c r="P36">
+        <v>1.000041978509314</v>
+      </c>
+      <c r="Q36">
+        <v>1.000041978509314</v>
+      </c>
+      <c r="R36">
+        <v>1.000146914844668</v>
+      </c>
+      <c r="S36">
+        <v>1.000146914844668</v>
+      </c>
+      <c r="T36">
+        <v>0.9999601736737823</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9993440318874688</v>
+      </c>
+      <c r="D37">
+        <v>1.001972677979694</v>
+      </c>
+      <c r="E37">
+        <v>0.9991937279891175</v>
+      </c>
+      <c r="F37">
+        <v>1.000262070145457</v>
+      </c>
+      <c r="G37">
+        <v>0.9992638028065871</v>
+      </c>
+      <c r="H37">
+        <v>1.000701717046461</v>
+      </c>
+      <c r="I37">
+        <v>0.9992638028065871</v>
+      </c>
+      <c r="J37">
+        <v>0.9991937279891175</v>
+      </c>
+      <c r="K37">
+        <v>0.9991937279891175</v>
+      </c>
+      <c r="L37">
+        <v>1.000701717046461</v>
+      </c>
+      <c r="M37">
+        <v>0.9999827599265239</v>
+      </c>
+      <c r="N37">
+        <v>0.9999827599265239</v>
+      </c>
+      <c r="O37">
+        <v>0.9997698505801722</v>
+      </c>
+      <c r="P37">
+        <v>0.9997197492807217</v>
+      </c>
+      <c r="Q37">
+        <v>0.9997197492807217</v>
+      </c>
+      <c r="R37">
+        <v>0.9995882439578206</v>
+      </c>
+      <c r="S37">
+        <v>0.9995882439578206</v>
+      </c>
+      <c r="T37">
+        <v>1.000123004642464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9974133763440092</v>
+      </c>
+      <c r="D38">
+        <v>1.000280968666016</v>
+      </c>
+      <c r="E38">
+        <v>1.00391065612619</v>
+      </c>
+      <c r="F38">
+        <v>1.001250424021589</v>
+      </c>
+      <c r="G38">
+        <v>0.994277471421872</v>
+      </c>
+      <c r="H38">
+        <v>1.000155676881875</v>
+      </c>
+      <c r="I38">
+        <v>0.994277471421872</v>
+      </c>
+      <c r="J38">
+        <v>1.00391065612619</v>
+      </c>
+      <c r="K38">
+        <v>1.00391065612619</v>
+      </c>
+      <c r="L38">
+        <v>1.000155676881875</v>
+      </c>
+      <c r="M38">
+        <v>0.9972165741518735</v>
+      </c>
+      <c r="N38">
+        <v>0.9972165741518735</v>
+      </c>
+      <c r="O38">
+        <v>0.9972821748825854</v>
+      </c>
+      <c r="P38">
+        <v>0.9994479348099791</v>
+      </c>
+      <c r="Q38">
+        <v>0.9994479348099791</v>
+      </c>
+      <c r="R38">
+        <v>1.000563615139032</v>
+      </c>
+      <c r="S38">
+        <v>1.000563615139032</v>
+      </c>
+      <c r="T38">
+        <v>0.9995480955769253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9937391697105834</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9963123933485772</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.013699931382854</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.003127590382545</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9847032847107016</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.998776835052634</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9847032847107016</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.013699931382854</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.013699931382854</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.998776835052634</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9917400598816678</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9917400598816678</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9924064298246397</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9990600170487299</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9990600170487299</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.002719995632261</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.002719995632261</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9983932007646493</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9734024201810781</v>
+      </c>
+      <c r="D40">
+        <v>1.006722714565907</v>
+      </c>
+      <c r="E40">
+        <v>1.035613619409864</v>
+      </c>
+      <c r="F40">
+        <v>1.012950639076778</v>
+      </c>
+      <c r="G40">
+        <v>0.9413350949802919</v>
+      </c>
+      <c r="H40">
+        <v>1.003624311951513</v>
+      </c>
+      <c r="I40">
+        <v>0.9413350949802919</v>
+      </c>
+      <c r="J40">
+        <v>1.035613619409864</v>
+      </c>
+      <c r="K40">
+        <v>1.035613619409864</v>
+      </c>
+      <c r="L40">
+        <v>1.003624311951513</v>
+      </c>
+      <c r="M40">
+        <v>0.9724797034659025</v>
+      </c>
+      <c r="N40">
+        <v>0.9724797034659025</v>
+      </c>
+      <c r="O40">
+        <v>0.9727872757042944</v>
+      </c>
+      <c r="P40">
+        <v>0.9935243421138896</v>
+      </c>
+      <c r="Q40">
+        <v>0.9935243421138896</v>
+      </c>
+      <c r="R40">
+        <v>1.004046661437883</v>
+      </c>
+      <c r="S40">
+        <v>1.004046661437883</v>
+      </c>
+      <c r="T40">
+        <v>0.9956081333609053</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9952239253737541</v>
+      </c>
+      <c r="D41">
+        <v>1.010035877001855</v>
+      </c>
+      <c r="E41">
+        <v>0.9988302964601762</v>
+      </c>
+      <c r="F41">
+        <v>1.001902106673882</v>
+      </c>
+      <c r="G41">
+        <v>0.9938675411931419</v>
+      </c>
+      <c r="H41">
+        <v>1.003166227444019</v>
+      </c>
+      <c r="I41">
+        <v>0.9938675411931419</v>
+      </c>
+      <c r="J41">
+        <v>0.9988302964601762</v>
+      </c>
+      <c r="K41">
+        <v>0.9988302964601762</v>
+      </c>
+      <c r="L41">
+        <v>1.003166227444019</v>
+      </c>
+      <c r="M41">
+        <v>0.9985168843185803</v>
+      </c>
+      <c r="N41">
+        <v>0.9985168843185803</v>
+      </c>
+      <c r="O41">
+        <v>0.9974192313369716</v>
+      </c>
+      <c r="P41">
+        <v>0.9986213550324456</v>
+      </c>
+      <c r="Q41">
+        <v>0.9986213550324455</v>
+      </c>
+      <c r="R41">
+        <v>0.9986735903893782</v>
+      </c>
+      <c r="S41">
+        <v>0.9986735903893782</v>
+      </c>
+      <c r="T41">
+        <v>1.000504329024471</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.879860147688044</v>
+      </c>
+      <c r="D42">
+        <v>1.125312463313997</v>
+      </c>
+      <c r="E42">
+        <v>1.073794859883874</v>
+      </c>
+      <c r="F42">
+        <v>1.055166904309494</v>
+      </c>
+      <c r="G42">
+        <v>0.7744851249023783</v>
+      </c>
+      <c r="H42">
+        <v>1.04750108328465</v>
+      </c>
+      <c r="I42">
+        <v>0.7744851249023783</v>
+      </c>
+      <c r="J42">
+        <v>1.073794859883874</v>
+      </c>
+      <c r="K42">
+        <v>1.073794859883874</v>
+      </c>
+      <c r="L42">
+        <v>1.04750108328465</v>
+      </c>
+      <c r="M42">
+        <v>0.910993104093514</v>
+      </c>
+      <c r="N42">
+        <v>0.910993104093514</v>
+      </c>
+      <c r="O42">
+        <v>0.9006154519583572</v>
+      </c>
+      <c r="P42">
+        <v>0.965260356023634</v>
+      </c>
+      <c r="Q42">
+        <v>0.965260356023634</v>
+      </c>
+      <c r="R42">
+        <v>0.9923939819886941</v>
+      </c>
+      <c r="S42">
+        <v>0.9923939819886941</v>
+      </c>
+      <c r="T42">
+        <v>0.992686763897073</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/O554F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW25.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.006838913780032</v>
+        <v>0.9986888801574336</v>
       </c>
       <c r="D3">
-        <v>0.9837744724610833</v>
+        <v>1.002335978380831</v>
       </c>
       <c r="E3">
-        <v>1.00260032796696</v>
+        <v>0.999967324162344</v>
       </c>
       <c r="F3">
-        <v>1.006838913780032</v>
+        <v>1.000558773319281</v>
       </c>
       <c r="G3">
-        <v>1.006399795468471</v>
+        <v>0.9979864763243348</v>
       </c>
       <c r="H3">
-        <v>0.9918424219045031</v>
+        <v>1.00080216826188</v>
       </c>
       <c r="I3">
-        <v>1.003836067317458</v>
+        <v>0.9979864763243348</v>
       </c>
       <c r="J3">
-        <v>0.9837744724610833</v>
+        <v>0.999967324162344</v>
       </c>
       <c r="K3">
-        <v>1.006838913780032</v>
+        <v>0.999967324162344</v>
       </c>
       <c r="L3">
-        <v>1.00260032796696</v>
+        <v>1.00080216826188</v>
       </c>
       <c r="M3">
-        <v>0.9931874002140216</v>
+        <v>0.9993943222931072</v>
       </c>
       <c r="N3">
-        <v>0.9931874002140216</v>
+        <v>0.9993943222931072</v>
       </c>
       <c r="O3">
-        <v>0.9927390741108488</v>
+        <v>0.9991591749145493</v>
       </c>
       <c r="P3">
-        <v>0.997737904736025</v>
+        <v>0.9995853229161861</v>
       </c>
       <c r="Q3">
-        <v>0.997737904736025</v>
+        <v>0.9995853229161861</v>
       </c>
       <c r="R3">
-        <v>1.000013156997027</v>
+        <v>0.9996808232277256</v>
       </c>
       <c r="S3">
-        <v>1.000013156997027</v>
+        <v>0.9996808232277256</v>
       </c>
       <c r="T3">
-        <v>0.9992153331497512</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>1.000056600101017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.013027561790472</v>
+        <v>0.9734024201810781</v>
       </c>
       <c r="D4">
-        <v>0.96870907853638</v>
+        <v>1.006722714565907</v>
       </c>
       <c r="E4">
-        <v>1.005084681175477</v>
+        <v>1.035613619409864</v>
       </c>
       <c r="F4">
-        <v>1.013027561790472</v>
+        <v>1.012950639076778</v>
       </c>
       <c r="G4">
-        <v>1.012502096520384</v>
+        <v>0.9413350949802919</v>
       </c>
       <c r="H4">
-        <v>0.9842640444774235</v>
+        <v>1.003624311951513</v>
       </c>
       <c r="I4">
-        <v>1.007400390631225</v>
+        <v>0.9413350949802919</v>
       </c>
       <c r="J4">
-        <v>0.96870907853638</v>
+        <v>1.035613619409864</v>
       </c>
       <c r="K4">
-        <v>1.013027561790472</v>
+        <v>1.035613619409864</v>
       </c>
       <c r="L4">
-        <v>1.005084681175477</v>
+        <v>1.003624311951513</v>
       </c>
       <c r="M4">
-        <v>0.9868968798559286</v>
+        <v>0.9724797034659025</v>
       </c>
       <c r="N4">
-        <v>0.9868968798559286</v>
+        <v>0.9724797034659025</v>
       </c>
       <c r="O4">
-        <v>0.9860192680630936</v>
+        <v>0.9727872757042944</v>
       </c>
       <c r="P4">
-        <v>0.9956071071674432</v>
+        <v>0.9935243421138896</v>
       </c>
       <c r="Q4">
-        <v>0.9956071071674432</v>
+        <v>0.9935243421138896</v>
       </c>
       <c r="R4">
-        <v>0.9999622208232004</v>
+        <v>1.004046661437883</v>
       </c>
       <c r="S4">
-        <v>0.9999622208232004</v>
+        <v>1.004046661437883</v>
       </c>
       <c r="T4">
-        <v>0.9984979755218938</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>0.9956081333609053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.024773521598876</v>
+        <v>0.9170217438112395</v>
       </c>
       <c r="D5">
-        <v>0.9402629801003477</v>
+        <v>1.134042896368876</v>
       </c>
       <c r="E5">
-        <v>1.009787798766851</v>
+        <v>1.010250067932275</v>
       </c>
       <c r="F5">
-        <v>1.024773521598876</v>
+        <v>1.035884528227663</v>
       </c>
       <c r="G5">
-        <v>1.024240994542343</v>
+        <v>0.866964832817003</v>
       </c>
       <c r="H5">
-        <v>0.9698437017588324</v>
+        <v>1.046433689618151</v>
       </c>
       <c r="I5">
-        <v>1.014156814841595</v>
+        <v>0.866964832817003</v>
       </c>
       <c r="J5">
-        <v>0.9402629801003477</v>
+        <v>1.010250067932275</v>
       </c>
       <c r="K5">
-        <v>1.024773521598876</v>
+        <v>1.010250067932275</v>
       </c>
       <c r="L5">
-        <v>1.009787798766851</v>
+        <v>1.046433689618151</v>
       </c>
       <c r="M5">
-        <v>0.9750253894335995</v>
+        <v>0.9566992612175769</v>
       </c>
       <c r="N5">
-        <v>0.9750253894335995</v>
+        <v>0.9566992612175769</v>
       </c>
       <c r="O5">
-        <v>0.9732981602086772</v>
+        <v>0.943473422082131</v>
       </c>
       <c r="P5">
-        <v>0.9916081001553584</v>
+        <v>0.9745495301224762</v>
       </c>
       <c r="Q5">
-        <v>0.9916081001553584</v>
+        <v>0.9745495301224762</v>
       </c>
       <c r="R5">
-        <v>0.9998994555162378</v>
+        <v>0.9834746645749259</v>
       </c>
       <c r="S5">
-        <v>0.9998994555162378</v>
+        <v>0.9834746645749259</v>
       </c>
       <c r="T5">
-        <v>0.997177635268141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>1.001766293129201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.036193762904677</v>
+        <v>0.7230491056245539</v>
       </c>
       <c r="D6">
-        <v>0.9125968396859747</v>
+        <v>1.497066971720851</v>
       </c>
       <c r="E6">
-        <v>1.014413216890393</v>
+        <v>0.9941423388466444</v>
       </c>
       <c r="F6">
-        <v>1.036193762904677</v>
+        <v>1.117006477192431</v>
       </c>
       <c r="G6">
-        <v>1.035713028661208</v>
+        <v>0.5815530028432495</v>
       </c>
       <c r="H6">
-        <v>0.9557448732995698</v>
+        <v>1.167567870336226</v>
       </c>
       <c r="I6">
-        <v>1.020763241075661</v>
+        <v>0.5815530028432495</v>
       </c>
       <c r="J6">
-        <v>0.9125968396859747</v>
+        <v>0.9941423388466444</v>
       </c>
       <c r="K6">
-        <v>1.036193762904677</v>
+        <v>0.9941423388466444</v>
       </c>
       <c r="L6">
-        <v>1.014413216890393</v>
+        <v>1.167567870336226</v>
       </c>
       <c r="M6">
-        <v>0.9635050282881837</v>
+        <v>0.8745604365897379</v>
       </c>
       <c r="N6">
-        <v>0.9635050282881837</v>
+        <v>0.8745604365897379</v>
       </c>
       <c r="O6">
-        <v>0.9609183099586458</v>
+        <v>0.8240566596013433</v>
       </c>
       <c r="P6">
-        <v>0.9877346064936816</v>
+        <v>0.9144210706753734</v>
       </c>
       <c r="Q6">
-        <v>0.9877346064936816</v>
+        <v>0.9144210706753734</v>
       </c>
       <c r="R6">
-        <v>0.9998493955964305</v>
+        <v>0.934351387718191</v>
       </c>
       <c r="S6">
-        <v>0.9998493955964305</v>
+        <v>0.934351387718191</v>
       </c>
       <c r="T6">
-        <v>0.9959041604195806</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>1.013397627760659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999896628964965</v>
+        <v>0.9910833650159303</v>
       </c>
       <c r="D7">
-        <v>0.9991846992147162</v>
+        <v>1.007210499391784</v>
       </c>
       <c r="E7">
-        <v>1.000324185855903</v>
+        <v>1.007262133567104</v>
       </c>
       <c r="F7">
-        <v>0.9999896628964965</v>
+        <v>1.004189928810673</v>
       </c>
       <c r="G7">
-        <v>1.000949924358131</v>
+        <v>0.9823138558062022</v>
       </c>
       <c r="H7">
-        <v>0.9994667773179094</v>
+        <v>1.002925647955209</v>
       </c>
       <c r="I7">
-        <v>1.000226657278725</v>
+        <v>0.9823138558062022</v>
       </c>
       <c r="J7">
-        <v>0.9991846992147162</v>
+        <v>1.007262133567104</v>
       </c>
       <c r="K7">
-        <v>0.9999896628964965</v>
+        <v>1.007262133567104</v>
       </c>
       <c r="L7">
-        <v>1.000324185855903</v>
+        <v>1.002925647955209</v>
       </c>
       <c r="M7">
-        <v>0.9997544425353097</v>
+        <v>0.9926197518807056</v>
       </c>
       <c r="N7">
-        <v>0.9997544425353097</v>
+        <v>0.9926197518807056</v>
       </c>
       <c r="O7">
-        <v>0.9996585541295095</v>
+        <v>0.9921076229257805</v>
       </c>
       <c r="P7">
-        <v>0.9998328493223719</v>
+        <v>0.9975005457761719</v>
       </c>
       <c r="Q7">
-        <v>0.9998328493223719</v>
+        <v>0.997500545776172</v>
       </c>
       <c r="R7">
-        <v>0.9998720527159031</v>
+        <v>0.9999409427239051</v>
       </c>
       <c r="S7">
-        <v>0.9998720527159031</v>
+        <v>0.9999409427239051</v>
       </c>
       <c r="T7">
-        <v>1.000023651153647</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0.999164238424484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.999967324162344</v>
+        <v>0.9993440318874688</v>
       </c>
       <c r="D8">
-        <v>0.997986476324335</v>
+        <v>1.001972677979694</v>
       </c>
       <c r="E8">
-        <v>1.00080216826188</v>
+        <v>0.9991937279891175</v>
       </c>
       <c r="F8">
-        <v>0.999967324162344</v>
+        <v>1.000262070145457</v>
       </c>
       <c r="G8">
-        <v>1.002335978380831</v>
+        <v>0.9992638028065871</v>
       </c>
       <c r="H8">
-        <v>0.9986888801574338</v>
+        <v>1.000701717046461</v>
       </c>
       <c r="I8">
-        <v>1.000558773319281</v>
+        <v>0.9992638028065871</v>
       </c>
       <c r="J8">
-        <v>0.997986476324335</v>
+        <v>0.9991937279891175</v>
       </c>
       <c r="K8">
-        <v>0.999967324162344</v>
+        <v>0.9991937279891175</v>
       </c>
       <c r="L8">
-        <v>1.00080216826188</v>
+        <v>1.000701717046461</v>
       </c>
       <c r="M8">
-        <v>0.9993943222931072</v>
+        <v>0.9999827599265239</v>
       </c>
       <c r="N8">
-        <v>0.9993943222931072</v>
+        <v>0.9999827599265239</v>
       </c>
       <c r="O8">
-        <v>0.9991591749145495</v>
+        <v>0.9997698505801722</v>
       </c>
       <c r="P8">
-        <v>0.9995853229161861</v>
+        <v>0.9997197492807217</v>
       </c>
       <c r="Q8">
-        <v>0.9995853229161863</v>
+        <v>0.9997197492807217</v>
       </c>
       <c r="R8">
-        <v>0.9996808232277257</v>
+        <v>0.9995882439578206</v>
       </c>
       <c r="S8">
-        <v>0.9996808232277257</v>
+        <v>0.9995882439578206</v>
       </c>
       <c r="T8">
-        <v>1.000056600101017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>1.000123004642464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.999955502340659</v>
+        <v>0.9842640444774235</v>
       </c>
       <c r="D9">
-        <v>0.9972747511002851</v>
+        <v>1.012502096520384</v>
       </c>
       <c r="E9">
-        <v>1.00108134056075</v>
+        <v>1.013027561790472</v>
       </c>
       <c r="F9">
-        <v>0.999955502340659</v>
+        <v>1.007400390631225</v>
       </c>
       <c r="G9">
-        <v>1.003106041707512</v>
+        <v>0.96870907853638</v>
       </c>
       <c r="H9">
-        <v>0.99824405815588</v>
+        <v>1.005084681175477</v>
       </c>
       <c r="I9">
-        <v>1.000753108625628</v>
+        <v>0.96870907853638</v>
       </c>
       <c r="J9">
-        <v>0.9972747511002851</v>
+        <v>1.013027561790472</v>
       </c>
       <c r="K9">
-        <v>0.999955502340659</v>
+        <v>1.013027561790472</v>
       </c>
       <c r="L9">
-        <v>1.00108134056075</v>
+        <v>1.005084681175477</v>
       </c>
       <c r="M9">
-        <v>0.9991780458305177</v>
+        <v>0.9868968798559286</v>
       </c>
       <c r="N9">
-        <v>0.9991780458305177</v>
+        <v>0.9868968798559286</v>
       </c>
       <c r="O9">
-        <v>0.9988667166056384</v>
+        <v>0.9860192680630936</v>
       </c>
       <c r="P9">
-        <v>0.9994371980005647</v>
+        <v>0.9956071071674432</v>
       </c>
       <c r="Q9">
-        <v>0.9994371980005647</v>
+        <v>0.9956071071674432</v>
       </c>
       <c r="R9">
-        <v>0.9995667740855882</v>
+        <v>0.9999622208232004</v>
       </c>
       <c r="S9">
-        <v>0.9995667740855882</v>
+        <v>0.9999622208232004</v>
       </c>
       <c r="T9">
-        <v>1.000069133748452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>0.9984979755218938</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999267370251791</v>
+        <v>0.7189620524255793</v>
       </c>
       <c r="D10">
-        <v>0.994020980395496</v>
+        <v>1.507065426443354</v>
       </c>
       <c r="E10">
-        <v>1.002362499577881</v>
+        <v>0.9920347973086835</v>
       </c>
       <c r="F10">
-        <v>0.9999267370251791</v>
+        <v>1.118545240496073</v>
       </c>
       <c r="G10">
-        <v>1.006819663608049</v>
+        <v>0.5771401125860195</v>
       </c>
       <c r="H10">
-        <v>0.996140503297796</v>
+        <v>1.170607169990609</v>
       </c>
       <c r="I10">
-        <v>1.00165236409952</v>
+        <v>0.5771401125860195</v>
       </c>
       <c r="J10">
-        <v>0.994020980395496</v>
+        <v>0.9920347973086835</v>
       </c>
       <c r="K10">
-        <v>0.9999267370251791</v>
+        <v>0.9920347973086835</v>
       </c>
       <c r="L10">
-        <v>1.002362499577881</v>
+        <v>1.170607169990609</v>
       </c>
       <c r="M10">
-        <v>0.9981917399866883</v>
+        <v>0.8738736412883144</v>
       </c>
       <c r="N10">
-        <v>0.9981917399866883</v>
+        <v>0.8738736412883144</v>
       </c>
       <c r="O10">
-        <v>0.9975079944237243</v>
+        <v>0.822236445000736</v>
       </c>
       <c r="P10">
-        <v>0.998770072332852</v>
+        <v>0.9132606932951041</v>
       </c>
       <c r="Q10">
-        <v>0.998770072332852</v>
+        <v>0.9132606932951042</v>
       </c>
       <c r="R10">
-        <v>0.9990592385059337</v>
+        <v>0.932954219298499</v>
       </c>
       <c r="S10">
-        <v>0.9990592385059337</v>
+        <v>0.932954219298499</v>
       </c>
       <c r="T10">
-        <v>1.000153791333987</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>1.014059133208386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999138114793991</v>
+        <v>0.9522572185898993</v>
       </c>
       <c r="D11">
-        <v>0.9902800899873577</v>
+        <v>1.038625110108879</v>
       </c>
       <c r="E11">
-        <v>1.003809899077512</v>
+        <v>1.040626812093348</v>
       </c>
       <c r="F11">
-        <v>0.9999138114793991</v>
+        <v>1.02207864313952</v>
       </c>
       <c r="G11">
-        <v>1.01090116904997</v>
+        <v>0.907368543237168</v>
       </c>
       <c r="H11">
-        <v>0.9937826718501237</v>
+        <v>1.014445654898245</v>
       </c>
       <c r="I11">
-        <v>1.002674014861147</v>
+        <v>0.907368543237168</v>
       </c>
       <c r="J11">
-        <v>0.9902800899873577</v>
+        <v>1.040626812093348</v>
       </c>
       <c r="K11">
-        <v>0.9999138114793991</v>
+        <v>1.040626812093348</v>
       </c>
       <c r="L11">
-        <v>1.003809899077512</v>
+        <v>1.014445654898245</v>
       </c>
       <c r="M11">
-        <v>0.9970449945324347</v>
+        <v>0.9609070990677064</v>
       </c>
       <c r="N11">
-        <v>0.9970449945324347</v>
+        <v>0.9609070990677064</v>
       </c>
       <c r="O11">
-        <v>0.9959575536383311</v>
+        <v>0.9580238055751041</v>
       </c>
       <c r="P11">
-        <v>0.9980012668480894</v>
+        <v>0.9874803367429204</v>
       </c>
       <c r="Q11">
-        <v>0.9980012668480894</v>
+        <v>0.9874803367429204</v>
       </c>
       <c r="R11">
-        <v>0.9984794030059169</v>
+        <v>1.000766955580527</v>
       </c>
       <c r="S11">
-        <v>0.9984794030059169</v>
+        <v>1.000766955580527</v>
       </c>
       <c r="T11">
-        <v>1.000226942717585</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>0.9959003303445101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.047365424485008</v>
+        <v>0.9148235637368435</v>
       </c>
       <c r="D12">
-        <v>1.061581022273859</v>
+        <v>1.154383050947369</v>
       </c>
       <c r="E12">
-        <v>0.9503847246480531</v>
+        <v>0.9967613307368439</v>
       </c>
       <c r="F12">
-        <v>1.047365424485008</v>
+        <v>1.035898794852631</v>
       </c>
       <c r="G12">
-        <v>0.8530855837407341</v>
+        <v>0.8726273058842116</v>
       </c>
       <c r="H12">
-        <v>1.05432540472902</v>
+        <v>1.052004747747366</v>
       </c>
       <c r="I12">
-        <v>0.9786589849979105</v>
+        <v>0.8726273058842116</v>
       </c>
       <c r="J12">
-        <v>1.061581022273859</v>
+        <v>0.9967613307368439</v>
       </c>
       <c r="K12">
-        <v>1.047365424485008</v>
+        <v>0.9967613307368439</v>
       </c>
       <c r="L12">
-        <v>0.9503847246480531</v>
+        <v>1.052004747747366</v>
       </c>
       <c r="M12">
-        <v>1.005982873460956</v>
+        <v>0.962316026815789</v>
       </c>
       <c r="N12">
-        <v>1.005982873460956</v>
+        <v>0.962316026815789</v>
       </c>
       <c r="O12">
-        <v>1.022097050550311</v>
+        <v>0.9464852057894738</v>
       </c>
       <c r="P12">
-        <v>1.01977705713564</v>
+        <v>0.9737977947894739</v>
       </c>
       <c r="Q12">
-        <v>1.01977705713564</v>
+        <v>0.9737977947894739</v>
       </c>
       <c r="R12">
-        <v>1.026674148972982</v>
+        <v>0.9795386787763164</v>
       </c>
       <c r="S12">
-        <v>1.026674148972982</v>
+        <v>0.9795386787763164</v>
       </c>
       <c r="T12">
-        <v>0.9909001908124307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>1.004416465650878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9611230171532087</v>
+        <v>1.055902261341171</v>
       </c>
       <c r="D13">
-        <v>1.042806609087952</v>
+        <v>0.9252756954926158</v>
       </c>
       <c r="E13">
-        <v>1.004267878115693</v>
+        <v>0.9807939412956163</v>
       </c>
       <c r="F13">
-        <v>0.9611230171532087</v>
+        <v>0.9748513697537183</v>
       </c>
       <c r="G13">
-        <v>1.014575212475614</v>
+        <v>1.098865681106915</v>
       </c>
       <c r="H13">
-        <v>1.015878292789818</v>
+        <v>0.9724058659389437</v>
       </c>
       <c r="I13">
-        <v>0.991689203474276</v>
+        <v>1.098865681106915</v>
       </c>
       <c r="J13">
-        <v>1.042806609087952</v>
+        <v>0.9807939412956163</v>
       </c>
       <c r="K13">
-        <v>0.9611230171532087</v>
+        <v>0.9807939412956163</v>
       </c>
       <c r="L13">
-        <v>1.004267878115693</v>
+        <v>0.9724058659389437</v>
       </c>
       <c r="M13">
-        <v>1.023537243601822</v>
+        <v>1.03563577352293</v>
       </c>
       <c r="N13">
-        <v>1.023537243601822</v>
+        <v>1.03563577352293</v>
       </c>
       <c r="O13">
-        <v>1.020984259997821</v>
+        <v>1.042391269462343</v>
       </c>
       <c r="P13">
-        <v>1.002732501452284</v>
+        <v>1.017355162780492</v>
       </c>
       <c r="Q13">
-        <v>1.002732501452284</v>
+        <v>1.017355162780492</v>
       </c>
       <c r="R13">
-        <v>0.9923301303775154</v>
+        <v>1.008214857409273</v>
       </c>
       <c r="S13">
-        <v>0.9923301303775154</v>
+        <v>1.008214857409273</v>
       </c>
       <c r="T13">
-        <v>1.00505670218276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>1.001349135821497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9524672683731991</v>
+        <v>0.5147050799999995</v>
       </c>
       <c r="D14">
-        <v>1.277945304197526</v>
+        <v>1.882458900000002</v>
       </c>
       <c r="E14">
-        <v>0.9162600194777768</v>
+        <v>0.9807476900000007</v>
       </c>
       <c r="F14">
-        <v>0.9524672683731991</v>
+        <v>1.204338699999999</v>
       </c>
       <c r="G14">
-        <v>0.7600674521479991</v>
+        <v>0.2729709000000003</v>
       </c>
       <c r="H14">
-        <v>1.166973523183243</v>
+        <v>1.2963515</v>
       </c>
       <c r="I14">
-        <v>0.9268160727153568</v>
+        <v>0.2729709000000003</v>
       </c>
       <c r="J14">
-        <v>1.277945304197526</v>
+        <v>0.9807476900000007</v>
       </c>
       <c r="K14">
-        <v>0.9524672683731991</v>
+        <v>0.9807476900000007</v>
       </c>
       <c r="L14">
-        <v>0.9162600194777768</v>
+        <v>1.2963515</v>
       </c>
       <c r="M14">
-        <v>1.097102661837651</v>
+        <v>0.7846612000000002</v>
       </c>
       <c r="N14">
-        <v>1.097102661837651</v>
+        <v>0.7846612000000002</v>
       </c>
       <c r="O14">
-        <v>1.120392948952849</v>
+        <v>0.6946758266666665</v>
       </c>
       <c r="P14">
-        <v>1.048890864016167</v>
+        <v>0.8500233633333337</v>
       </c>
       <c r="Q14">
-        <v>1.048890864016167</v>
+        <v>0.8500233633333337</v>
       </c>
       <c r="R14">
-        <v>1.024784965105425</v>
+        <v>0.8827044450000004</v>
       </c>
       <c r="S14">
-        <v>1.024784965105425</v>
+        <v>0.8827044450000004</v>
       </c>
       <c r="T14">
-        <v>1.000088273349183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>1.025262128333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9702584587703184</v>
+        <v>1.010241</v>
       </c>
       <c r="D15">
-        <v>1.097001383482977</v>
+        <v>1.0148617</v>
       </c>
       <c r="E15">
-        <v>0.9814668414772103</v>
+        <v>0.94351534</v>
       </c>
       <c r="F15">
-        <v>0.9702584587703184</v>
+        <v>1.0000003</v>
       </c>
       <c r="G15">
-        <v>0.963889039369728</v>
+        <v>0.99519062</v>
       </c>
       <c r="H15">
-        <v>1.043671968998775</v>
+        <v>1.0232451</v>
       </c>
       <c r="I15">
-        <v>0.978199097757483</v>
+        <v>0.99519062</v>
       </c>
       <c r="J15">
-        <v>1.097001383482977</v>
+        <v>0.94351534</v>
       </c>
       <c r="K15">
-        <v>0.9702584587703184</v>
+        <v>0.94351534</v>
       </c>
       <c r="L15">
-        <v>0.9814668414772103</v>
+        <v>1.0232451</v>
       </c>
       <c r="M15">
-        <v>1.039234112480094</v>
+        <v>1.00921786</v>
       </c>
       <c r="N15">
-        <v>1.039234112480094</v>
+        <v>1.00921786</v>
       </c>
       <c r="O15">
-        <v>1.040713397986321</v>
+        <v>1.009558906666667</v>
       </c>
       <c r="P15">
-        <v>1.016242227910169</v>
+        <v>0.9873170200000002</v>
       </c>
       <c r="Q15">
-        <v>1.016242227910168</v>
+        <v>0.98731702</v>
       </c>
       <c r="R15">
-        <v>1.004746285625206</v>
+        <v>0.9763666</v>
       </c>
       <c r="S15">
-        <v>1.004746285625206</v>
+        <v>0.9763666</v>
       </c>
       <c r="T15">
-        <v>1.005747798309415</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>0.9978423433333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000461723850728</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="D16">
-        <v>0.9998196396670413</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="E16">
-        <v>0.9998445720101744</v>
+        <v>1.3679559</v>
       </c>
       <c r="F16">
-        <v>1.000461723850728</v>
+        <v>1.1014624</v>
       </c>
       <c r="G16">
-        <v>0.9996648830332027</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="H16">
-        <v>0.9999457238327765</v>
+        <v>0.99179431</v>
       </c>
       <c r="I16">
-        <v>1.000024499648771</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="J16">
-        <v>0.9998196396670413</v>
+        <v>1.3679559</v>
       </c>
       <c r="K16">
-        <v>1.000461723850728</v>
+        <v>1.3679559</v>
       </c>
       <c r="L16">
-        <v>0.9998445720101744</v>
+        <v>0.99179431</v>
       </c>
       <c r="M16">
-        <v>0.9998321058386079</v>
+        <v>0.75735024</v>
       </c>
       <c r="N16">
-        <v>0.9998321058386079</v>
+        <v>0.75735024</v>
       </c>
       <c r="O16">
-        <v>0.9998699785033308</v>
+        <v>0.76950231</v>
       </c>
       <c r="P16">
-        <v>1.000041978509315</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q16">
-        <v>1.000041978509315</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R16">
-        <v>1.000146914844668</v>
+        <v>1.06265307</v>
       </c>
       <c r="S16">
-        <v>1.000146914844668</v>
+        <v>1.06265307</v>
       </c>
       <c r="T16">
-        <v>0.9999601736737822</v>
+        <v>0.9566266583333332</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9991937279891171</v>
+        <v>1.2538115</v>
       </c>
       <c r="D17">
-        <v>0.9992638028065871</v>
+        <v>0.70907898</v>
       </c>
       <c r="E17">
-        <v>1.000701717046461</v>
+        <v>0.8482665499999998</v>
       </c>
       <c r="F17">
-        <v>0.9991937279891171</v>
+        <v>0.8887042099999999</v>
       </c>
       <c r="G17">
-        <v>1.001972677979694</v>
+        <v>1.4367363</v>
       </c>
       <c r="H17">
-        <v>0.9993440318874688</v>
+        <v>0.90534522</v>
       </c>
       <c r="I17">
-        <v>1.000262070145457</v>
+        <v>1.4367363</v>
       </c>
       <c r="J17">
-        <v>0.9992638028065871</v>
+        <v>0.8482665499999998</v>
       </c>
       <c r="K17">
-        <v>0.9991937279891171</v>
+        <v>0.8482665499999998</v>
       </c>
       <c r="L17">
-        <v>1.000701717046461</v>
+        <v>0.90534522</v>
       </c>
       <c r="M17">
-        <v>0.9999827599265239</v>
+        <v>1.17104076</v>
       </c>
       <c r="N17">
-        <v>0.9999827599265239</v>
+        <v>1.17104076</v>
       </c>
       <c r="O17">
-        <v>0.9997698505801722</v>
+        <v>1.198631006666667</v>
       </c>
       <c r="P17">
-        <v>0.9997197492807216</v>
+        <v>1.063449356666667</v>
       </c>
       <c r="Q17">
-        <v>0.9997197492807217</v>
+        <v>1.063449356666667</v>
       </c>
       <c r="R17">
-        <v>0.9995882439578205</v>
+        <v>1.009653655</v>
       </c>
       <c r="S17">
-        <v>0.9995882439578205</v>
+        <v>1.009653655</v>
       </c>
       <c r="T17">
-        <v>1.000123004642464</v>
+        <v>1.00699046</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00391065612619</v>
+        <v>0.8142460550684927</v>
       </c>
       <c r="D18">
-        <v>0.9942774714218722</v>
+        <v>1.136855227123288</v>
       </c>
       <c r="E18">
-        <v>1.000155676881875</v>
+        <v>1.16262111369863</v>
       </c>
       <c r="F18">
-        <v>1.00391065612619</v>
+        <v>1.087940121917808</v>
       </c>
       <c r="G18">
-        <v>1.000280968666016</v>
+        <v>0.6249135627397261</v>
       </c>
       <c r="H18">
-        <v>0.9974133763440092</v>
+        <v>1.057207196164384</v>
       </c>
       <c r="I18">
-        <v>1.001250424021589</v>
+        <v>0.6249135627397261</v>
       </c>
       <c r="J18">
-        <v>0.9942774714218722</v>
+        <v>1.16262111369863</v>
       </c>
       <c r="K18">
-        <v>1.00391065612619</v>
+        <v>1.16262111369863</v>
       </c>
       <c r="L18">
-        <v>1.000155676881875</v>
+        <v>1.057207196164384</v>
       </c>
       <c r="M18">
-        <v>0.9972165741518737</v>
+        <v>0.841060379452055</v>
       </c>
       <c r="N18">
-        <v>0.9972165741518737</v>
+        <v>0.841060379452055</v>
       </c>
       <c r="O18">
-        <v>0.9972821748825855</v>
+        <v>0.8321222713242009</v>
       </c>
       <c r="P18">
-        <v>0.9994479348099791</v>
+        <v>0.9482472908675801</v>
       </c>
       <c r="Q18">
-        <v>0.9994479348099791</v>
+        <v>0.94824729086758</v>
       </c>
       <c r="R18">
-        <v>1.000563615139032</v>
+        <v>1.001840746575343</v>
       </c>
       <c r="S18">
-        <v>1.000563615139032</v>
+        <v>1.001840746575343</v>
       </c>
       <c r="T18">
-        <v>0.9995480955769253</v>
+        <v>0.9806305461187215</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.013699931382854</v>
+        <v>0.9848485442105263</v>
       </c>
       <c r="D19">
-        <v>0.9847032847107016</v>
+        <v>1.006473216315789</v>
       </c>
       <c r="E19">
-        <v>0.998776835052634</v>
+        <v>1.012281419473684</v>
       </c>
       <c r="F19">
-        <v>1.013699931382854</v>
+        <v>1.008679703684211</v>
       </c>
       <c r="G19">
-        <v>0.9963123933485772</v>
+        <v>0.9565757552631581</v>
       </c>
       <c r="H19">
-        <v>0.9937391697105834</v>
+        <v>1.007197509473684</v>
       </c>
       <c r="I19">
-        <v>1.003127590382545</v>
+        <v>0.9565757552631581</v>
       </c>
       <c r="J19">
-        <v>0.9847032847107016</v>
+        <v>1.012281419473684</v>
       </c>
       <c r="K19">
-        <v>1.013699931382854</v>
+        <v>1.012281419473684</v>
       </c>
       <c r="L19">
-        <v>0.998776835052634</v>
+        <v>1.007197509473684</v>
       </c>
       <c r="M19">
-        <v>0.9917400598816678</v>
+        <v>0.9818866323684212</v>
       </c>
       <c r="N19">
-        <v>0.9917400598816678</v>
+        <v>0.9818866323684212</v>
       </c>
       <c r="O19">
-        <v>0.9924064298246397</v>
+        <v>0.9828739363157896</v>
       </c>
       <c r="P19">
-        <v>0.9990600170487299</v>
+        <v>0.9920182280701756</v>
       </c>
       <c r="Q19">
-        <v>0.9990600170487299</v>
+        <v>0.9920182280701756</v>
       </c>
       <c r="R19">
-        <v>1.002719995632261</v>
+        <v>0.9970840259210528</v>
       </c>
       <c r="S19">
-        <v>1.002719995632261</v>
+        <v>0.9970840259210528</v>
       </c>
       <c r="T19">
-        <v>0.9983932007646493</v>
+        <v>0.9960093580701755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9202715110526314</v>
+      </c>
+      <c r="D20">
+        <v>1.19402171368421</v>
+      </c>
+      <c r="E20">
+        <v>0.9576723063157895</v>
+      </c>
+      <c r="F20">
+        <v>1.030432424210526</v>
+      </c>
+      <c r="G20">
+        <v>0.9119195921052632</v>
+      </c>
+      <c r="H20">
+        <v>1.060374860526316</v>
+      </c>
+      <c r="I20">
+        <v>0.9119195921052632</v>
+      </c>
+      <c r="J20">
+        <v>0.9576723063157895</v>
+      </c>
+      <c r="K20">
+        <v>0.9576723063157895</v>
+      </c>
+      <c r="L20">
+        <v>1.060374860526316</v>
+      </c>
+      <c r="M20">
+        <v>0.9861472263157894</v>
+      </c>
+      <c r="N20">
+        <v>0.9861472263157894</v>
+      </c>
+      <c r="O20">
+        <v>0.9641886545614033</v>
+      </c>
+      <c r="P20">
+        <v>0.9766555863157894</v>
+      </c>
+      <c r="Q20">
+        <v>0.9766555863157894</v>
+      </c>
+      <c r="R20">
+        <v>0.9719097663157894</v>
+      </c>
+      <c r="S20">
+        <v>0.9719097663157894</v>
+      </c>
+      <c r="T20">
+        <v>1.012448734649123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.166973523183243</v>
+      </c>
+      <c r="D21">
+        <v>0.7600674521479991</v>
+      </c>
+      <c r="E21">
+        <v>0.9524672683731991</v>
+      </c>
+      <c r="F21">
+        <v>0.9268160727153568</v>
+      </c>
+      <c r="G21">
+        <v>1.277945304197526</v>
+      </c>
+      <c r="H21">
+        <v>0.9162600194777768</v>
+      </c>
+      <c r="I21">
+        <v>1.277945304197526</v>
+      </c>
+      <c r="J21">
+        <v>0.9524672683731991</v>
+      </c>
+      <c r="K21">
+        <v>0.9524672683731991</v>
+      </c>
+      <c r="L21">
+        <v>0.9162600194777768</v>
+      </c>
+      <c r="M21">
+        <v>1.097102661837651</v>
+      </c>
+      <c r="N21">
+        <v>1.097102661837651</v>
+      </c>
+      <c r="O21">
+        <v>1.120392948952849</v>
+      </c>
+      <c r="P21">
+        <v>1.048890864016167</v>
+      </c>
+      <c r="Q21">
+        <v>1.048890864016167</v>
+      </c>
+      <c r="R21">
+        <v>1.024784965105425</v>
+      </c>
+      <c r="S21">
+        <v>1.024784965105425</v>
+      </c>
+      <c r="T21">
+        <v>1.000088273349183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.043671968998775</v>
+      </c>
+      <c r="D22">
+        <v>0.9638890393697279</v>
+      </c>
+      <c r="E22">
+        <v>0.9702584587703185</v>
+      </c>
+      <c r="F22">
+        <v>0.978199097757483</v>
+      </c>
+      <c r="G22">
+        <v>1.097001383482977</v>
+      </c>
+      <c r="H22">
+        <v>0.9814668414772103</v>
+      </c>
+      <c r="I22">
+        <v>1.097001383482977</v>
+      </c>
+      <c r="J22">
+        <v>0.9702584587703185</v>
+      </c>
+      <c r="K22">
+        <v>0.9702584587703185</v>
+      </c>
+      <c r="L22">
+        <v>0.9814668414772103</v>
+      </c>
+      <c r="M22">
+        <v>1.039234112480094</v>
+      </c>
+      <c r="N22">
+        <v>1.039234112480094</v>
+      </c>
+      <c r="O22">
+        <v>1.040713397986321</v>
+      </c>
+      <c r="P22">
+        <v>1.016242227910169</v>
+      </c>
+      <c r="Q22">
+        <v>1.016242227910169</v>
+      </c>
+      <c r="R22">
+        <v>1.004746285625206</v>
+      </c>
+      <c r="S22">
+        <v>1.004746285625206</v>
+      </c>
+      <c r="T22">
+        <v>1.005747798309415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.05432540472902</v>
+      </c>
+      <c r="D23">
+        <v>0.8530855837407341</v>
+      </c>
+      <c r="E23">
+        <v>1.047365424485008</v>
+      </c>
+      <c r="F23">
+        <v>0.9786589849979106</v>
+      </c>
+      <c r="G23">
+        <v>1.061581022273859</v>
+      </c>
+      <c r="H23">
+        <v>0.9503847246480529</v>
+      </c>
+      <c r="I23">
+        <v>1.061581022273859</v>
+      </c>
+      <c r="J23">
+        <v>1.047365424485008</v>
+      </c>
+      <c r="K23">
+        <v>1.047365424485008</v>
+      </c>
+      <c r="L23">
+        <v>0.9503847246480529</v>
+      </c>
+      <c r="M23">
+        <v>1.005982873460956</v>
+      </c>
+      <c r="N23">
+        <v>1.005982873460956</v>
+      </c>
+      <c r="O23">
+        <v>1.022097050550311</v>
+      </c>
+      <c r="P23">
+        <v>1.01977705713564</v>
+      </c>
+      <c r="Q23">
+        <v>1.01977705713564</v>
+      </c>
+      <c r="R23">
+        <v>1.026674148972982</v>
+      </c>
+      <c r="S23">
+        <v>1.026674148972982</v>
+      </c>
+      <c r="T23">
+        <v>0.9909001908124306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.015878292789818</v>
+      </c>
+      <c r="D24">
+        <v>1.014575212475614</v>
+      </c>
+      <c r="E24">
+        <v>0.9611230171532089</v>
+      </c>
+      <c r="F24">
+        <v>0.991689203474276</v>
+      </c>
+      <c r="G24">
+        <v>1.042806609087952</v>
+      </c>
+      <c r="H24">
+        <v>1.004267878115692</v>
+      </c>
+      <c r="I24">
+        <v>1.042806609087952</v>
+      </c>
+      <c r="J24">
+        <v>0.9611230171532089</v>
+      </c>
+      <c r="K24">
+        <v>0.9611230171532089</v>
+      </c>
+      <c r="L24">
+        <v>1.004267878115692</v>
+      </c>
+      <c r="M24">
+        <v>1.023537243601822</v>
+      </c>
+      <c r="N24">
+        <v>1.023537243601822</v>
+      </c>
+      <c r="O24">
+        <v>1.020984259997821</v>
+      </c>
+      <c r="P24">
+        <v>1.002732501452284</v>
+      </c>
+      <c r="Q24">
+        <v>1.002732501452284</v>
+      </c>
+      <c r="R24">
+        <v>0.9923301303775155</v>
+      </c>
+      <c r="S24">
+        <v>0.9923301303775155</v>
+      </c>
+      <c r="T24">
+        <v>1.00505670218276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.975533036580572</v>
+      </c>
+      <c r="D25">
+        <v>0.9644260654808853</v>
+      </c>
+      <c r="E25">
+        <v>1.067156282378092</v>
+      </c>
+      <c r="F25">
+        <v>1.01422573709254</v>
+      </c>
+      <c r="G25">
+        <v>0.9230763229458547</v>
+      </c>
+      <c r="H25">
+        <v>0.992443620583089</v>
+      </c>
+      <c r="I25">
+        <v>0.9230763229458547</v>
+      </c>
+      <c r="J25">
+        <v>1.067156282378092</v>
+      </c>
+      <c r="K25">
+        <v>1.067156282378092</v>
+      </c>
+      <c r="L25">
+        <v>0.992443620583089</v>
+      </c>
+      <c r="M25">
+        <v>0.9577599717644718</v>
+      </c>
+      <c r="N25">
+        <v>0.9577599717644718</v>
+      </c>
+      <c r="O25">
+        <v>0.9636843267031718</v>
+      </c>
+      <c r="P25">
+        <v>0.9942254086356787</v>
+      </c>
+      <c r="Q25">
+        <v>0.9942254086356787</v>
+      </c>
+      <c r="R25">
+        <v>1.012458127071282</v>
+      </c>
+      <c r="S25">
+        <v>1.012458127071282</v>
+      </c>
+      <c r="T25">
+        <v>0.9894768441768388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.994130198163685</v>
+      </c>
+      <c r="D26">
+        <v>1.035213233802188</v>
+      </c>
+      <c r="E26">
+        <v>0.9792352521322691</v>
+      </c>
+      <c r="F26">
+        <v>1.00121374672298</v>
+      </c>
+      <c r="G26">
+        <v>1.00369771773012</v>
+      </c>
+      <c r="H26">
+        <v>1.01025838995085</v>
+      </c>
+      <c r="I26">
+        <v>1.00369771773012</v>
+      </c>
+      <c r="J26">
+        <v>0.9792352521322691</v>
+      </c>
+      <c r="K26">
+        <v>0.9792352521322691</v>
+      </c>
+      <c r="L26">
+        <v>1.01025838995085</v>
+      </c>
+      <c r="M26">
+        <v>1.006978053840485</v>
+      </c>
+      <c r="N26">
+        <v>1.006978053840485</v>
+      </c>
+      <c r="O26">
+        <v>1.002695435281552</v>
+      </c>
+      <c r="P26">
+        <v>0.9977304532710797</v>
+      </c>
+      <c r="Q26">
+        <v>0.9977304532710797</v>
+      </c>
+      <c r="R26">
+        <v>0.993106652986377</v>
+      </c>
+      <c r="S26">
+        <v>0.993106652986377</v>
+      </c>
+      <c r="T26">
+        <v>1.003958089750349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.97096457517307</v>
+      </c>
+      <c r="D27">
+        <v>1.028980653568425</v>
+      </c>
+      <c r="E27">
+        <v>1.017313377204708</v>
+      </c>
+      <c r="F27">
+        <v>1.013936979914781</v>
+      </c>
+      <c r="G27">
+        <v>0.9393369506631409</v>
+      </c>
+      <c r="H27">
+        <v>1.012547535095565</v>
+      </c>
+      <c r="I27">
+        <v>0.9393369506631409</v>
+      </c>
+      <c r="J27">
+        <v>1.017313377204708</v>
+      </c>
+      <c r="K27">
+        <v>1.017313377204708</v>
+      </c>
+      <c r="L27">
+        <v>1.012547535095565</v>
+      </c>
+      <c r="M27">
+        <v>0.9759422428793529</v>
+      </c>
+      <c r="N27">
+        <v>0.9759422428793529</v>
+      </c>
+      <c r="O27">
+        <v>0.974283020310592</v>
+      </c>
+      <c r="P27">
+        <v>0.9897326209878045</v>
+      </c>
+      <c r="Q27">
+        <v>0.9897326209878045</v>
+      </c>
+      <c r="R27">
+        <v>0.9966278100420303</v>
+      </c>
+      <c r="S27">
+        <v>0.9966278100420303</v>
+      </c>
+      <c r="T27">
+        <v>0.9971800119366149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.006649407313305</v>
+      </c>
+      <c r="D28">
+        <v>0.961182478182254</v>
+      </c>
+      <c r="E28">
+        <v>1.02676237869226</v>
+      </c>
+      <c r="F28">
+        <v>0.9976500505218072</v>
+      </c>
+      <c r="G28">
+        <v>1.002645285850874</v>
+      </c>
+      <c r="H28">
+        <v>0.9856696669696746</v>
+      </c>
+      <c r="I28">
+        <v>1.002645285850874</v>
+      </c>
+      <c r="J28">
+        <v>1.02676237869226</v>
+      </c>
+      <c r="K28">
+        <v>1.02676237869226</v>
+      </c>
+      <c r="L28">
+        <v>0.9856696669696746</v>
+      </c>
+      <c r="M28">
+        <v>0.9941574764102743</v>
+      </c>
+      <c r="N28">
+        <v>0.9941574764102743</v>
+      </c>
+      <c r="O28">
+        <v>0.9983214533779513</v>
+      </c>
+      <c r="P28">
+        <v>1.005025777170936</v>
+      </c>
+      <c r="Q28">
+        <v>1.005025777170936</v>
+      </c>
+      <c r="R28">
+        <v>1.010459927551267</v>
+      </c>
+      <c r="S28">
+        <v>1.010459927551267</v>
+      </c>
+      <c r="T28">
+        <v>0.9967598779216957</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.098328064806429</v>
+      </c>
+      <c r="D29">
+        <v>0.8267937295268546</v>
+      </c>
+      <c r="E29">
+        <v>0.9920008746115695</v>
+      </c>
+      <c r="F29">
+        <v>0.9599966531844948</v>
+      </c>
+      <c r="G29">
+        <v>1.137819380463258</v>
+      </c>
+      <c r="H29">
+        <v>0.9468261909527298</v>
+      </c>
+      <c r="I29">
+        <v>1.137819380463258</v>
+      </c>
+      <c r="J29">
+        <v>0.9920008746115695</v>
+      </c>
+      <c r="K29">
+        <v>0.9920008746115695</v>
+      </c>
+      <c r="L29">
+        <v>0.9468261909527298</v>
+      </c>
+      <c r="M29">
+        <v>1.042322785707994</v>
+      </c>
+      <c r="N29">
+        <v>1.042322785707994</v>
+      </c>
+      <c r="O29">
+        <v>1.060991212074139</v>
+      </c>
+      <c r="P29">
+        <v>1.025548815342519</v>
+      </c>
+      <c r="Q29">
+        <v>1.025548815342519</v>
+      </c>
+      <c r="R29">
+        <v>1.017161830159782</v>
+      </c>
+      <c r="S29">
+        <v>1.017161830159782</v>
+      </c>
+      <c r="T29">
+        <v>0.9936274822575557</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/O554F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9734024201810781</v>
+        <v>0.9295175473447909</v>
       </c>
       <c r="D4">
-        <v>1.006722714565907</v>
+        <v>1.114342470485853</v>
       </c>
       <c r="E4">
-        <v>1.035613619409864</v>
+        <v>1.008186918341836</v>
       </c>
       <c r="F4">
-        <v>1.012950639076778</v>
+        <v>1.030478928974876</v>
       </c>
       <c r="G4">
-        <v>0.9413350949802919</v>
+        <v>0.8871086777185407</v>
       </c>
       <c r="H4">
-        <v>1.003624311951513</v>
+        <v>1.0396525960084</v>
       </c>
       <c r="I4">
-        <v>0.9413350949802919</v>
+        <v>0.8871086777185407</v>
       </c>
       <c r="J4">
-        <v>1.035613619409864</v>
+        <v>1.008186918341836</v>
       </c>
       <c r="K4">
-        <v>1.035613619409864</v>
+        <v>1.008186918341836</v>
       </c>
       <c r="L4">
-        <v>1.003624311951513</v>
+        <v>1.0396525960084</v>
       </c>
       <c r="M4">
-        <v>0.9724797034659025</v>
+        <v>0.9633806368634703</v>
       </c>
       <c r="N4">
-        <v>0.9724797034659025</v>
+        <v>0.9633806368634703</v>
       </c>
       <c r="O4">
-        <v>0.9727872757042944</v>
+        <v>0.9520929403572439</v>
       </c>
       <c r="P4">
-        <v>0.9935243421138896</v>
+        <v>0.9783160640229255</v>
       </c>
       <c r="Q4">
-        <v>0.9935243421138896</v>
+        <v>0.9783160640229255</v>
       </c>
       <c r="R4">
-        <v>1.004046661437883</v>
+        <v>0.985783777602653</v>
       </c>
       <c r="S4">
-        <v>1.004046661437883</v>
+        <v>0.985783777602653</v>
       </c>
       <c r="T4">
-        <v>0.9956081333609053</v>
+        <v>1.001547856479049</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9170217438112395</v>
+        <v>0.9505428522987101</v>
       </c>
       <c r="D5">
-        <v>1.134042896368876</v>
+        <v>1.144105443698038</v>
       </c>
       <c r="E5">
-        <v>1.010250067932275</v>
+        <v>0.9554868591489365</v>
       </c>
       <c r="F5">
-        <v>1.035884528227663</v>
+        <v>1.017211832590676</v>
       </c>
       <c r="G5">
-        <v>0.866964832817003</v>
+        <v>0.9614326308685422</v>
       </c>
       <c r="H5">
-        <v>1.046433689618151</v>
+        <v>1.042613055461337</v>
       </c>
       <c r="I5">
-        <v>0.866964832817003</v>
+        <v>0.9614326308685422</v>
       </c>
       <c r="J5">
-        <v>1.010250067932275</v>
+        <v>0.9554868591489365</v>
       </c>
       <c r="K5">
-        <v>1.010250067932275</v>
+        <v>0.9554868591489365</v>
       </c>
       <c r="L5">
-        <v>1.046433689618151</v>
+        <v>1.042613055461337</v>
       </c>
       <c r="M5">
-        <v>0.9566992612175769</v>
+        <v>1.00202284316494</v>
       </c>
       <c r="N5">
-        <v>0.9566992612175769</v>
+        <v>1.00202284316494</v>
       </c>
       <c r="O5">
-        <v>0.943473422082131</v>
+        <v>0.98486284620953</v>
       </c>
       <c r="P5">
-        <v>0.9745495301224762</v>
+        <v>0.9865108484929387</v>
       </c>
       <c r="Q5">
-        <v>0.9745495301224762</v>
+        <v>0.9865108484929387</v>
       </c>
       <c r="R5">
-        <v>0.9834746645749259</v>
+        <v>0.9787548511569382</v>
       </c>
       <c r="S5">
-        <v>0.9834746645749259</v>
+        <v>0.9787548511569382</v>
       </c>
       <c r="T5">
-        <v>1.001766293129201</v>
+        <v>1.01189877901104</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.7230491056245539</v>
+        <v>0.9734024201810781</v>
       </c>
       <c r="D6">
-        <v>1.497066971720851</v>
+        <v>1.006722714565907</v>
       </c>
       <c r="E6">
-        <v>0.9941423388466444</v>
+        <v>1.035613619409864</v>
       </c>
       <c r="F6">
-        <v>1.117006477192431</v>
+        <v>1.012950639076778</v>
       </c>
       <c r="G6">
-        <v>0.5815530028432495</v>
+        <v>0.9413350949802919</v>
       </c>
       <c r="H6">
-        <v>1.167567870336226</v>
+        <v>1.003624311951513</v>
       </c>
       <c r="I6">
-        <v>0.5815530028432495</v>
+        <v>0.9413350949802919</v>
       </c>
       <c r="J6">
-        <v>0.9941423388466444</v>
+        <v>1.035613619409864</v>
       </c>
       <c r="K6">
-        <v>0.9941423388466444</v>
+        <v>1.035613619409864</v>
       </c>
       <c r="L6">
-        <v>1.167567870336226</v>
+        <v>1.003624311951513</v>
       </c>
       <c r="M6">
-        <v>0.8745604365897379</v>
+        <v>0.9724797034659025</v>
       </c>
       <c r="N6">
-        <v>0.8745604365897379</v>
+        <v>0.9724797034659025</v>
       </c>
       <c r="O6">
-        <v>0.8240566596013433</v>
+        <v>0.9727872757042944</v>
       </c>
       <c r="P6">
-        <v>0.9144210706753734</v>
+        <v>0.9935243421138896</v>
       </c>
       <c r="Q6">
-        <v>0.9144210706753734</v>
+        <v>0.9935243421138896</v>
       </c>
       <c r="R6">
-        <v>0.934351387718191</v>
+        <v>1.004046661437883</v>
       </c>
       <c r="S6">
-        <v>0.934351387718191</v>
+        <v>1.004046661437883</v>
       </c>
       <c r="T6">
-        <v>1.013397627760659</v>
+        <v>0.9956081333609053</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9910833650159303</v>
+        <v>0.9170217438112395</v>
       </c>
       <c r="D7">
-        <v>1.007210499391784</v>
+        <v>1.134042896368876</v>
       </c>
       <c r="E7">
-        <v>1.007262133567104</v>
+        <v>1.010250067932275</v>
       </c>
       <c r="F7">
-        <v>1.004189928810673</v>
+        <v>1.035884528227663</v>
       </c>
       <c r="G7">
-        <v>0.9823138558062022</v>
+        <v>0.866964832817003</v>
       </c>
       <c r="H7">
-        <v>1.002925647955209</v>
+        <v>1.046433689618151</v>
       </c>
       <c r="I7">
-        <v>0.9823138558062022</v>
+        <v>0.866964832817003</v>
       </c>
       <c r="J7">
-        <v>1.007262133567104</v>
+        <v>1.010250067932275</v>
       </c>
       <c r="K7">
-        <v>1.007262133567104</v>
+        <v>1.010250067932275</v>
       </c>
       <c r="L7">
-        <v>1.002925647955209</v>
+        <v>1.046433689618151</v>
       </c>
       <c r="M7">
-        <v>0.9926197518807056</v>
+        <v>0.9566992612175769</v>
       </c>
       <c r="N7">
-        <v>0.9926197518807056</v>
+        <v>0.9566992612175769</v>
       </c>
       <c r="O7">
-        <v>0.9921076229257805</v>
+        <v>0.943473422082131</v>
       </c>
       <c r="P7">
-        <v>0.9975005457761719</v>
+        <v>0.9745495301224762</v>
       </c>
       <c r="Q7">
-        <v>0.997500545776172</v>
+        <v>0.9745495301224762</v>
       </c>
       <c r="R7">
-        <v>0.9999409427239051</v>
+        <v>0.9834746645749259</v>
       </c>
       <c r="S7">
-        <v>0.9999409427239051</v>
+        <v>0.9834746645749259</v>
       </c>
       <c r="T7">
-        <v>0.999164238424484</v>
+        <v>1.001766293129201</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9993440318874688</v>
+        <v>0.7230491056245539</v>
       </c>
       <c r="D8">
-        <v>1.001972677979694</v>
+        <v>1.497066971720851</v>
       </c>
       <c r="E8">
-        <v>0.9991937279891175</v>
+        <v>0.9941423388466444</v>
       </c>
       <c r="F8">
-        <v>1.000262070145457</v>
+        <v>1.117006477192431</v>
       </c>
       <c r="G8">
-        <v>0.9992638028065871</v>
+        <v>0.5815530028432495</v>
       </c>
       <c r="H8">
-        <v>1.000701717046461</v>
+        <v>1.167567870336226</v>
       </c>
       <c r="I8">
-        <v>0.9992638028065871</v>
+        <v>0.5815530028432495</v>
       </c>
       <c r="J8">
-        <v>0.9991937279891175</v>
+        <v>0.9941423388466444</v>
       </c>
       <c r="K8">
-        <v>0.9991937279891175</v>
+        <v>0.9941423388466444</v>
       </c>
       <c r="L8">
-        <v>1.000701717046461</v>
+        <v>1.167567870336226</v>
       </c>
       <c r="M8">
-        <v>0.9999827599265239</v>
+        <v>0.8745604365897379</v>
       </c>
       <c r="N8">
-        <v>0.9999827599265239</v>
+        <v>0.8745604365897379</v>
       </c>
       <c r="O8">
-        <v>0.9997698505801722</v>
+        <v>0.8240566596013433</v>
       </c>
       <c r="P8">
-        <v>0.9997197492807217</v>
+        <v>0.9144210706753734</v>
       </c>
       <c r="Q8">
-        <v>0.9997197492807217</v>
+        <v>0.9144210706753734</v>
       </c>
       <c r="R8">
-        <v>0.9995882439578206</v>
+        <v>0.934351387718191</v>
       </c>
       <c r="S8">
-        <v>0.9995882439578206</v>
+        <v>0.934351387718191</v>
       </c>
       <c r="T8">
-        <v>1.000123004642464</v>
+        <v>1.013397627760659</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9842640444774235</v>
+        <v>0.9910833650159303</v>
       </c>
       <c r="D9">
-        <v>1.012502096520384</v>
+        <v>1.007210499391784</v>
       </c>
       <c r="E9">
-        <v>1.013027561790472</v>
+        <v>1.007262133567104</v>
       </c>
       <c r="F9">
-        <v>1.007400390631225</v>
+        <v>1.004189928810673</v>
       </c>
       <c r="G9">
-        <v>0.96870907853638</v>
+        <v>0.9823138558062022</v>
       </c>
       <c r="H9">
-        <v>1.005084681175477</v>
+        <v>1.002925647955209</v>
       </c>
       <c r="I9">
-        <v>0.96870907853638</v>
+        <v>0.9823138558062022</v>
       </c>
       <c r="J9">
-        <v>1.013027561790472</v>
+        <v>1.007262133567104</v>
       </c>
       <c r="K9">
-        <v>1.013027561790472</v>
+        <v>1.007262133567104</v>
       </c>
       <c r="L9">
-        <v>1.005084681175477</v>
+        <v>1.002925647955209</v>
       </c>
       <c r="M9">
-        <v>0.9868968798559286</v>
+        <v>0.9926197518807056</v>
       </c>
       <c r="N9">
-        <v>0.9868968798559286</v>
+        <v>0.9926197518807056</v>
       </c>
       <c r="O9">
-        <v>0.9860192680630936</v>
+        <v>0.9921076229257805</v>
       </c>
       <c r="P9">
-        <v>0.9956071071674432</v>
+        <v>0.9975005457761719</v>
       </c>
       <c r="Q9">
-        <v>0.9956071071674432</v>
+        <v>0.997500545776172</v>
       </c>
       <c r="R9">
-        <v>0.9999622208232004</v>
+        <v>0.9999409427239051</v>
       </c>
       <c r="S9">
-        <v>0.9999622208232004</v>
+        <v>0.9999409427239051</v>
       </c>
       <c r="T9">
-        <v>0.9984979755218938</v>
+        <v>0.999164238424484</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7189620524255793</v>
+        <v>0.9993440318874688</v>
       </c>
       <c r="D10">
-        <v>1.507065426443354</v>
+        <v>1.001972677979694</v>
       </c>
       <c r="E10">
-        <v>0.9920347973086835</v>
+        <v>0.9991937279891175</v>
       </c>
       <c r="F10">
-        <v>1.118545240496073</v>
+        <v>1.000262070145457</v>
       </c>
       <c r="G10">
-        <v>0.5771401125860195</v>
+        <v>0.9992638028065871</v>
       </c>
       <c r="H10">
-        <v>1.170607169990609</v>
+        <v>1.000701717046461</v>
       </c>
       <c r="I10">
-        <v>0.5771401125860195</v>
+        <v>0.9992638028065871</v>
       </c>
       <c r="J10">
-        <v>0.9920347973086835</v>
+        <v>0.9991937279891175</v>
       </c>
       <c r="K10">
-        <v>0.9920347973086835</v>
+        <v>0.9991937279891175</v>
       </c>
       <c r="L10">
-        <v>1.170607169990609</v>
+        <v>1.000701717046461</v>
       </c>
       <c r="M10">
-        <v>0.8738736412883144</v>
+        <v>0.9999827599265239</v>
       </c>
       <c r="N10">
-        <v>0.8738736412883144</v>
+        <v>0.9999827599265239</v>
       </c>
       <c r="O10">
-        <v>0.822236445000736</v>
+        <v>0.9997698505801722</v>
       </c>
       <c r="P10">
-        <v>0.9132606932951041</v>
+        <v>0.9997197492807217</v>
       </c>
       <c r="Q10">
-        <v>0.9132606932951042</v>
+        <v>0.9997197492807217</v>
       </c>
       <c r="R10">
-        <v>0.932954219298499</v>
+        <v>0.9995882439578206</v>
       </c>
       <c r="S10">
-        <v>0.932954219298499</v>
+        <v>0.9995882439578206</v>
       </c>
       <c r="T10">
-        <v>1.014059133208386</v>
+        <v>1.000123004642464</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9522572185898993</v>
+        <v>0.9842640444774235</v>
       </c>
       <c r="D11">
-        <v>1.038625110108879</v>
+        <v>1.012502096520384</v>
       </c>
       <c r="E11">
-        <v>1.040626812093348</v>
+        <v>1.013027561790472</v>
       </c>
       <c r="F11">
-        <v>1.02207864313952</v>
+        <v>1.007400390631225</v>
       </c>
       <c r="G11">
-        <v>0.907368543237168</v>
+        <v>0.96870907853638</v>
       </c>
       <c r="H11">
-        <v>1.014445654898245</v>
+        <v>1.005084681175477</v>
       </c>
       <c r="I11">
-        <v>0.907368543237168</v>
+        <v>0.96870907853638</v>
       </c>
       <c r="J11">
-        <v>1.040626812093348</v>
+        <v>1.013027561790472</v>
       </c>
       <c r="K11">
-        <v>1.040626812093348</v>
+        <v>1.013027561790472</v>
       </c>
       <c r="L11">
-        <v>1.014445654898245</v>
+        <v>1.005084681175477</v>
       </c>
       <c r="M11">
-        <v>0.9609070990677064</v>
+        <v>0.9868968798559286</v>
       </c>
       <c r="N11">
-        <v>0.9609070990677064</v>
+        <v>0.9868968798559286</v>
       </c>
       <c r="O11">
-        <v>0.9580238055751041</v>
+        <v>0.9860192680630936</v>
       </c>
       <c r="P11">
-        <v>0.9874803367429204</v>
+        <v>0.9956071071674432</v>
       </c>
       <c r="Q11">
-        <v>0.9874803367429204</v>
+        <v>0.9956071071674432</v>
       </c>
       <c r="R11">
-        <v>1.000766955580527</v>
+        <v>0.9999622208232004</v>
       </c>
       <c r="S11">
-        <v>1.000766955580527</v>
+        <v>0.9999622208232004</v>
       </c>
       <c r="T11">
-        <v>0.9959003303445101</v>
+        <v>0.9984979755218938</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9148235637368435</v>
+        <v>0.7189620524255793</v>
       </c>
       <c r="D12">
-        <v>1.154383050947369</v>
+        <v>1.507065426443354</v>
       </c>
       <c r="E12">
-        <v>0.9967613307368439</v>
+        <v>0.9920347973086835</v>
       </c>
       <c r="F12">
-        <v>1.035898794852631</v>
+        <v>1.118545240496073</v>
       </c>
       <c r="G12">
-        <v>0.8726273058842116</v>
+        <v>0.5771401125860195</v>
       </c>
       <c r="H12">
-        <v>1.052004747747366</v>
+        <v>1.170607169990609</v>
       </c>
       <c r="I12">
-        <v>0.8726273058842116</v>
+        <v>0.5771401125860195</v>
       </c>
       <c r="J12">
-        <v>0.9967613307368439</v>
+        <v>0.9920347973086835</v>
       </c>
       <c r="K12">
-        <v>0.9967613307368439</v>
+        <v>0.9920347973086835</v>
       </c>
       <c r="L12">
-        <v>1.052004747747366</v>
+        <v>1.170607169990609</v>
       </c>
       <c r="M12">
-        <v>0.962316026815789</v>
+        <v>0.8738736412883144</v>
       </c>
       <c r="N12">
-        <v>0.962316026815789</v>
+        <v>0.8738736412883144</v>
       </c>
       <c r="O12">
-        <v>0.9464852057894738</v>
+        <v>0.822236445000736</v>
       </c>
       <c r="P12">
-        <v>0.9737977947894739</v>
+        <v>0.9132606932951041</v>
       </c>
       <c r="Q12">
-        <v>0.9737977947894739</v>
+        <v>0.9132606932951042</v>
       </c>
       <c r="R12">
-        <v>0.9795386787763164</v>
+        <v>0.932954219298499</v>
       </c>
       <c r="S12">
-        <v>0.9795386787763164</v>
+        <v>0.932954219298499</v>
       </c>
       <c r="T12">
-        <v>1.004416465650878</v>
+        <v>1.014059133208386</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.055902261341171</v>
+        <v>0.9522572185898993</v>
       </c>
       <c r="D13">
-        <v>0.9252756954926158</v>
+        <v>1.038625110108879</v>
       </c>
       <c r="E13">
-        <v>0.9807939412956163</v>
+        <v>1.040626812093348</v>
       </c>
       <c r="F13">
-        <v>0.9748513697537183</v>
+        <v>1.02207864313952</v>
       </c>
       <c r="G13">
-        <v>1.098865681106915</v>
+        <v>0.907368543237168</v>
       </c>
       <c r="H13">
-        <v>0.9724058659389437</v>
+        <v>1.014445654898245</v>
       </c>
       <c r="I13">
-        <v>1.098865681106915</v>
+        <v>0.907368543237168</v>
       </c>
       <c r="J13">
-        <v>0.9807939412956163</v>
+        <v>1.040626812093348</v>
       </c>
       <c r="K13">
-        <v>0.9807939412956163</v>
+        <v>1.040626812093348</v>
       </c>
       <c r="L13">
-        <v>0.9724058659389437</v>
+        <v>1.014445654898245</v>
       </c>
       <c r="M13">
-        <v>1.03563577352293</v>
+        <v>0.9609070990677064</v>
       </c>
       <c r="N13">
-        <v>1.03563577352293</v>
+        <v>0.9609070990677064</v>
       </c>
       <c r="O13">
-        <v>1.042391269462343</v>
+        <v>0.9580238055751041</v>
       </c>
       <c r="P13">
-        <v>1.017355162780492</v>
+        <v>0.9874803367429204</v>
       </c>
       <c r="Q13">
-        <v>1.017355162780492</v>
+        <v>0.9874803367429204</v>
       </c>
       <c r="R13">
-        <v>1.008214857409273</v>
+        <v>1.000766955580527</v>
       </c>
       <c r="S13">
-        <v>1.008214857409273</v>
+        <v>1.000766955580527</v>
       </c>
       <c r="T13">
-        <v>1.001349135821497</v>
+        <v>0.9959003303445101</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.5147050799999995</v>
+        <v>0.9148235637368435</v>
       </c>
       <c r="D14">
-        <v>1.882458900000002</v>
+        <v>1.154383050947369</v>
       </c>
       <c r="E14">
-        <v>0.9807476900000007</v>
+        <v>0.9967613307368439</v>
       </c>
       <c r="F14">
-        <v>1.204338699999999</v>
+        <v>1.035898794852631</v>
       </c>
       <c r="G14">
-        <v>0.2729709000000003</v>
+        <v>0.8726273058842116</v>
       </c>
       <c r="H14">
-        <v>1.2963515</v>
+        <v>1.052004747747366</v>
       </c>
       <c r="I14">
-        <v>0.2729709000000003</v>
+        <v>0.8726273058842116</v>
       </c>
       <c r="J14">
-        <v>0.9807476900000007</v>
+        <v>0.9967613307368439</v>
       </c>
       <c r="K14">
-        <v>0.9807476900000007</v>
+        <v>0.9967613307368439</v>
       </c>
       <c r="L14">
-        <v>1.2963515</v>
+        <v>1.052004747747366</v>
       </c>
       <c r="M14">
-        <v>0.7846612000000002</v>
+        <v>0.962316026815789</v>
       </c>
       <c r="N14">
-        <v>0.7846612000000002</v>
+        <v>0.962316026815789</v>
       </c>
       <c r="O14">
-        <v>0.6946758266666665</v>
+        <v>0.9464852057894738</v>
       </c>
       <c r="P14">
-        <v>0.8500233633333337</v>
+        <v>0.9737977947894739</v>
       </c>
       <c r="Q14">
-        <v>0.8500233633333337</v>
+        <v>0.9737977947894739</v>
       </c>
       <c r="R14">
-        <v>0.8827044450000004</v>
+        <v>0.9795386787763164</v>
       </c>
       <c r="S14">
-        <v>0.8827044450000004</v>
+        <v>0.9795386787763164</v>
       </c>
       <c r="T14">
-        <v>1.025262128333334</v>
+        <v>1.004416465650878</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.010241</v>
+        <v>1.055902261341171</v>
       </c>
       <c r="D15">
-        <v>1.0148617</v>
+        <v>0.9252756954926158</v>
       </c>
       <c r="E15">
-        <v>0.94351534</v>
+        <v>0.9807939412956163</v>
       </c>
       <c r="F15">
-        <v>1.0000003</v>
+        <v>0.9748513697537183</v>
       </c>
       <c r="G15">
-        <v>0.99519062</v>
+        <v>1.098865681106915</v>
       </c>
       <c r="H15">
-        <v>1.0232451</v>
+        <v>0.9724058659389437</v>
       </c>
       <c r="I15">
-        <v>0.99519062</v>
+        <v>1.098865681106915</v>
       </c>
       <c r="J15">
-        <v>0.94351534</v>
+        <v>0.9807939412956163</v>
       </c>
       <c r="K15">
-        <v>0.94351534</v>
+        <v>0.9807939412956163</v>
       </c>
       <c r="L15">
-        <v>1.0232451</v>
+        <v>0.9724058659389437</v>
       </c>
       <c r="M15">
-        <v>1.00921786</v>
+        <v>1.03563577352293</v>
       </c>
       <c r="N15">
-        <v>1.00921786</v>
+        <v>1.03563577352293</v>
       </c>
       <c r="O15">
-        <v>1.009558906666667</v>
+        <v>1.042391269462343</v>
       </c>
       <c r="P15">
-        <v>0.9873170200000002</v>
+        <v>1.017355162780492</v>
       </c>
       <c r="Q15">
-        <v>0.98731702</v>
+        <v>1.017355162780492</v>
       </c>
       <c r="R15">
-        <v>0.9763666</v>
+        <v>1.008214857409273</v>
       </c>
       <c r="S15">
-        <v>0.9763666</v>
+        <v>1.008214857409273</v>
       </c>
       <c r="T15">
-        <v>0.9978423433333333</v>
+        <v>1.001349135821497</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7938064500000001</v>
+        <v>0.5147050799999995</v>
       </c>
       <c r="D16">
-        <v>0.9618347200000001</v>
+        <v>1.882458900000002</v>
       </c>
       <c r="E16">
-        <v>1.3679559</v>
+        <v>0.9807476900000007</v>
       </c>
       <c r="F16">
-        <v>1.1014624</v>
+        <v>1.204338699999999</v>
       </c>
       <c r="G16">
-        <v>0.5229061699999999</v>
+        <v>0.2729709000000003</v>
       </c>
       <c r="H16">
-        <v>0.99179431</v>
+        <v>1.2963515</v>
       </c>
       <c r="I16">
-        <v>0.5229061699999999</v>
+        <v>0.2729709000000003</v>
       </c>
       <c r="J16">
-        <v>1.3679559</v>
+        <v>0.9807476900000007</v>
       </c>
       <c r="K16">
-        <v>1.3679559</v>
+        <v>0.9807476900000007</v>
       </c>
       <c r="L16">
-        <v>0.99179431</v>
+        <v>1.2963515</v>
       </c>
       <c r="M16">
-        <v>0.75735024</v>
+        <v>0.7846612000000002</v>
       </c>
       <c r="N16">
-        <v>0.75735024</v>
+        <v>0.7846612000000002</v>
       </c>
       <c r="O16">
-        <v>0.76950231</v>
+        <v>0.6946758266666665</v>
       </c>
       <c r="P16">
-        <v>0.9608854599999997</v>
+        <v>0.8500233633333337</v>
       </c>
       <c r="Q16">
-        <v>0.9608854599999997</v>
+        <v>0.8500233633333337</v>
       </c>
       <c r="R16">
-        <v>1.06265307</v>
+        <v>0.8827044450000004</v>
       </c>
       <c r="S16">
-        <v>1.06265307</v>
+        <v>0.8827044450000004</v>
       </c>
       <c r="T16">
-        <v>0.9566266583333332</v>
+        <v>1.025262128333334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.2538115</v>
+        <v>1.010241</v>
       </c>
       <c r="D17">
-        <v>0.70907898</v>
+        <v>1.0148617</v>
       </c>
       <c r="E17">
-        <v>0.8482665499999998</v>
+        <v>0.94351534</v>
       </c>
       <c r="F17">
-        <v>0.8887042099999999</v>
+        <v>1.0000003</v>
       </c>
       <c r="G17">
-        <v>1.4367363</v>
+        <v>0.99519062</v>
       </c>
       <c r="H17">
-        <v>0.90534522</v>
+        <v>1.0232451</v>
       </c>
       <c r="I17">
-        <v>1.4367363</v>
+        <v>0.99519062</v>
       </c>
       <c r="J17">
-        <v>0.8482665499999998</v>
+        <v>0.94351534</v>
       </c>
       <c r="K17">
-        <v>0.8482665499999998</v>
+        <v>0.94351534</v>
       </c>
       <c r="L17">
-        <v>0.90534522</v>
+        <v>1.0232451</v>
       </c>
       <c r="M17">
-        <v>1.17104076</v>
+        <v>1.00921786</v>
       </c>
       <c r="N17">
-        <v>1.17104076</v>
+        <v>1.00921786</v>
       </c>
       <c r="O17">
-        <v>1.198631006666667</v>
+        <v>1.009558906666667</v>
       </c>
       <c r="P17">
-        <v>1.063449356666667</v>
+        <v>0.9873170200000002</v>
       </c>
       <c r="Q17">
-        <v>1.063449356666667</v>
+        <v>0.98731702</v>
       </c>
       <c r="R17">
-        <v>1.009653655</v>
+        <v>0.9763666</v>
       </c>
       <c r="S17">
-        <v>1.009653655</v>
+        <v>0.9763666</v>
       </c>
       <c r="T17">
-        <v>1.00699046</v>
+        <v>0.9978423433333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8142460550684927</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="D18">
-        <v>1.136855227123288</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="E18">
-        <v>1.16262111369863</v>
+        <v>1.3679559</v>
       </c>
       <c r="F18">
-        <v>1.087940121917808</v>
+        <v>1.1014624</v>
       </c>
       <c r="G18">
-        <v>0.6249135627397261</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="H18">
-        <v>1.057207196164384</v>
+        <v>0.99179431</v>
       </c>
       <c r="I18">
-        <v>0.6249135627397261</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="J18">
-        <v>1.16262111369863</v>
+        <v>1.3679559</v>
       </c>
       <c r="K18">
-        <v>1.16262111369863</v>
+        <v>1.3679559</v>
       </c>
       <c r="L18">
-        <v>1.057207196164384</v>
+        <v>0.99179431</v>
       </c>
       <c r="M18">
-        <v>0.841060379452055</v>
+        <v>0.75735024</v>
       </c>
       <c r="N18">
-        <v>0.841060379452055</v>
+        <v>0.75735024</v>
       </c>
       <c r="O18">
-        <v>0.8321222713242009</v>
+        <v>0.76950231</v>
       </c>
       <c r="P18">
-        <v>0.9482472908675801</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q18">
-        <v>0.94824729086758</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R18">
-        <v>1.001840746575343</v>
+        <v>1.06265307</v>
       </c>
       <c r="S18">
-        <v>1.001840746575343</v>
+        <v>1.06265307</v>
       </c>
       <c r="T18">
-        <v>0.9806305461187215</v>
+        <v>0.9566266583333332</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9848485442105263</v>
+        <v>1.2538115</v>
       </c>
       <c r="D19">
-        <v>1.006473216315789</v>
+        <v>0.70907898</v>
       </c>
       <c r="E19">
-        <v>1.012281419473684</v>
+        <v>0.8482665499999998</v>
       </c>
       <c r="F19">
-        <v>1.008679703684211</v>
+        <v>0.8887042099999999</v>
       </c>
       <c r="G19">
-        <v>0.9565757552631581</v>
+        <v>1.4367363</v>
       </c>
       <c r="H19">
-        <v>1.007197509473684</v>
+        <v>0.90534522</v>
       </c>
       <c r="I19">
-        <v>0.9565757552631581</v>
+        <v>1.4367363</v>
       </c>
       <c r="J19">
-        <v>1.012281419473684</v>
+        <v>0.8482665499999998</v>
       </c>
       <c r="K19">
-        <v>1.012281419473684</v>
+        <v>0.8482665499999998</v>
       </c>
       <c r="L19">
-        <v>1.007197509473684</v>
+        <v>0.90534522</v>
       </c>
       <c r="M19">
-        <v>0.9818866323684212</v>
+        <v>1.17104076</v>
       </c>
       <c r="N19">
-        <v>0.9818866323684212</v>
+        <v>1.17104076</v>
       </c>
       <c r="O19">
-        <v>0.9828739363157896</v>
+        <v>1.198631006666667</v>
       </c>
       <c r="P19">
-        <v>0.9920182280701756</v>
+        <v>1.063449356666667</v>
       </c>
       <c r="Q19">
-        <v>0.9920182280701756</v>
+        <v>1.063449356666667</v>
       </c>
       <c r="R19">
-        <v>0.9970840259210528</v>
+        <v>1.009653655</v>
       </c>
       <c r="S19">
-        <v>0.9970840259210528</v>
+        <v>1.009653655</v>
       </c>
       <c r="T19">
-        <v>0.9960093580701755</v>
+        <v>1.00699046</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9202715110526314</v>
+        <v>0.8142460550684927</v>
       </c>
       <c r="D20">
-        <v>1.19402171368421</v>
+        <v>1.136855227123288</v>
       </c>
       <c r="E20">
-        <v>0.9576723063157895</v>
+        <v>1.16262111369863</v>
       </c>
       <c r="F20">
-        <v>1.030432424210526</v>
+        <v>1.087940121917808</v>
       </c>
       <c r="G20">
-        <v>0.9119195921052632</v>
+        <v>0.6249135627397261</v>
       </c>
       <c r="H20">
-        <v>1.060374860526316</v>
+        <v>1.057207196164384</v>
       </c>
       <c r="I20">
-        <v>0.9119195921052632</v>
+        <v>0.6249135627397261</v>
       </c>
       <c r="J20">
-        <v>0.9576723063157895</v>
+        <v>1.16262111369863</v>
       </c>
       <c r="K20">
-        <v>0.9576723063157895</v>
+        <v>1.16262111369863</v>
       </c>
       <c r="L20">
-        <v>1.060374860526316</v>
+        <v>1.057207196164384</v>
       </c>
       <c r="M20">
-        <v>0.9861472263157894</v>
+        <v>0.841060379452055</v>
       </c>
       <c r="N20">
-        <v>0.9861472263157894</v>
+        <v>0.841060379452055</v>
       </c>
       <c r="O20">
-        <v>0.9641886545614033</v>
+        <v>0.8321222713242009</v>
       </c>
       <c r="P20">
-        <v>0.9766555863157894</v>
+        <v>0.9482472908675801</v>
       </c>
       <c r="Q20">
-        <v>0.9766555863157894</v>
+        <v>0.94824729086758</v>
       </c>
       <c r="R20">
-        <v>0.9719097663157894</v>
+        <v>1.001840746575343</v>
       </c>
       <c r="S20">
-        <v>0.9719097663157894</v>
+        <v>1.001840746575343</v>
       </c>
       <c r="T20">
-        <v>1.012448734649123</v>
+        <v>0.9806305461187215</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.166973523183243</v>
+        <v>0.9848485442105263</v>
       </c>
       <c r="D21">
-        <v>0.7600674521479991</v>
+        <v>1.006473216315789</v>
       </c>
       <c r="E21">
-        <v>0.9524672683731991</v>
+        <v>1.012281419473684</v>
       </c>
       <c r="F21">
-        <v>0.9268160727153568</v>
+        <v>1.008679703684211</v>
       </c>
       <c r="G21">
-        <v>1.277945304197526</v>
+        <v>0.9565757552631581</v>
       </c>
       <c r="H21">
-        <v>0.9162600194777768</v>
+        <v>1.007197509473684</v>
       </c>
       <c r="I21">
-        <v>1.277945304197526</v>
+        <v>0.9565757552631581</v>
       </c>
       <c r="J21">
-        <v>0.9524672683731991</v>
+        <v>1.012281419473684</v>
       </c>
       <c r="K21">
-        <v>0.9524672683731991</v>
+        <v>1.012281419473684</v>
       </c>
       <c r="L21">
-        <v>0.9162600194777768</v>
+        <v>1.007197509473684</v>
       </c>
       <c r="M21">
-        <v>1.097102661837651</v>
+        <v>0.9818866323684212</v>
       </c>
       <c r="N21">
-        <v>1.097102661837651</v>
+        <v>0.9818866323684212</v>
       </c>
       <c r="O21">
-        <v>1.120392948952849</v>
+        <v>0.9828739363157896</v>
       </c>
       <c r="P21">
-        <v>1.048890864016167</v>
+        <v>0.9920182280701756</v>
       </c>
       <c r="Q21">
-        <v>1.048890864016167</v>
+        <v>0.9920182280701756</v>
       </c>
       <c r="R21">
-        <v>1.024784965105425</v>
+        <v>0.9970840259210528</v>
       </c>
       <c r="S21">
-        <v>1.024784965105425</v>
+        <v>0.9970840259210528</v>
       </c>
       <c r="T21">
-        <v>1.000088273349183</v>
+        <v>0.9960093580701755</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.043671968998775</v>
+        <v>0.9202715110526314</v>
       </c>
       <c r="D22">
-        <v>0.9638890393697279</v>
+        <v>1.19402171368421</v>
       </c>
       <c r="E22">
-        <v>0.9702584587703185</v>
+        <v>0.9576723063157895</v>
       </c>
       <c r="F22">
-        <v>0.978199097757483</v>
+        <v>1.030432424210526</v>
       </c>
       <c r="G22">
-        <v>1.097001383482977</v>
+        <v>0.9119195921052632</v>
       </c>
       <c r="H22">
-        <v>0.9814668414772103</v>
+        <v>1.060374860526316</v>
       </c>
       <c r="I22">
-        <v>1.097001383482977</v>
+        <v>0.9119195921052632</v>
       </c>
       <c r="J22">
-        <v>0.9702584587703185</v>
+        <v>0.9576723063157895</v>
       </c>
       <c r="K22">
-        <v>0.9702584587703185</v>
+        <v>0.9576723063157895</v>
       </c>
       <c r="L22">
-        <v>0.9814668414772103</v>
+        <v>1.060374860526316</v>
       </c>
       <c r="M22">
-        <v>1.039234112480094</v>
+        <v>0.9861472263157894</v>
       </c>
       <c r="N22">
-        <v>1.039234112480094</v>
+        <v>0.9861472263157894</v>
       </c>
       <c r="O22">
-        <v>1.040713397986321</v>
+        <v>0.9641886545614033</v>
       </c>
       <c r="P22">
-        <v>1.016242227910169</v>
+        <v>0.9766555863157894</v>
       </c>
       <c r="Q22">
-        <v>1.016242227910169</v>
+        <v>0.9766555863157894</v>
       </c>
       <c r="R22">
-        <v>1.004746285625206</v>
+        <v>0.9719097663157894</v>
       </c>
       <c r="S22">
-        <v>1.004746285625206</v>
+        <v>0.9719097663157894</v>
       </c>
       <c r="T22">
-        <v>1.005747798309415</v>
+        <v>1.012448734649123</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.05432540472902</v>
+        <v>1.166973523183243</v>
       </c>
       <c r="D23">
-        <v>0.8530855837407341</v>
+        <v>0.7600674521479991</v>
       </c>
       <c r="E23">
-        <v>1.047365424485008</v>
+        <v>0.9524672683731991</v>
       </c>
       <c r="F23">
-        <v>0.9786589849979106</v>
+        <v>0.9268160727153568</v>
       </c>
       <c r="G23">
-        <v>1.061581022273859</v>
+        <v>1.277945304197526</v>
       </c>
       <c r="H23">
-        <v>0.9503847246480529</v>
+        <v>0.9162600194777768</v>
       </c>
       <c r="I23">
-        <v>1.061581022273859</v>
+        <v>1.277945304197526</v>
       </c>
       <c r="J23">
-        <v>1.047365424485008</v>
+        <v>0.9524672683731991</v>
       </c>
       <c r="K23">
-        <v>1.047365424485008</v>
+        <v>0.9524672683731991</v>
       </c>
       <c r="L23">
-        <v>0.9503847246480529</v>
+        <v>0.9162600194777768</v>
       </c>
       <c r="M23">
-        <v>1.005982873460956</v>
+        <v>1.097102661837651</v>
       </c>
       <c r="N23">
-        <v>1.005982873460956</v>
+        <v>1.097102661837651</v>
       </c>
       <c r="O23">
-        <v>1.022097050550311</v>
+        <v>1.120392948952849</v>
       </c>
       <c r="P23">
-        <v>1.01977705713564</v>
+        <v>1.048890864016167</v>
       </c>
       <c r="Q23">
-        <v>1.01977705713564</v>
+        <v>1.048890864016167</v>
       </c>
       <c r="R23">
-        <v>1.026674148972982</v>
+        <v>1.024784965105425</v>
       </c>
       <c r="S23">
-        <v>1.026674148972982</v>
+        <v>1.024784965105425</v>
       </c>
       <c r="T23">
-        <v>0.9909001908124306</v>
+        <v>1.000088273349183</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.015878292789818</v>
+        <v>1.043671968998775</v>
       </c>
       <c r="D24">
-        <v>1.014575212475614</v>
+        <v>0.9638890393697279</v>
       </c>
       <c r="E24">
-        <v>0.9611230171532089</v>
+        <v>0.9702584587703185</v>
       </c>
       <c r="F24">
-        <v>0.991689203474276</v>
+        <v>0.978199097757483</v>
       </c>
       <c r="G24">
-        <v>1.042806609087952</v>
+        <v>1.097001383482977</v>
       </c>
       <c r="H24">
-        <v>1.004267878115692</v>
+        <v>0.9814668414772103</v>
       </c>
       <c r="I24">
-        <v>1.042806609087952</v>
+        <v>1.097001383482977</v>
       </c>
       <c r="J24">
-        <v>0.9611230171532089</v>
+        <v>0.9702584587703185</v>
       </c>
       <c r="K24">
-        <v>0.9611230171532089</v>
+        <v>0.9702584587703185</v>
       </c>
       <c r="L24">
-        <v>1.004267878115692</v>
+        <v>0.9814668414772103</v>
       </c>
       <c r="M24">
-        <v>1.023537243601822</v>
+        <v>1.039234112480094</v>
       </c>
       <c r="N24">
-        <v>1.023537243601822</v>
+        <v>1.039234112480094</v>
       </c>
       <c r="O24">
-        <v>1.020984259997821</v>
+        <v>1.040713397986321</v>
       </c>
       <c r="P24">
-        <v>1.002732501452284</v>
+        <v>1.016242227910169</v>
       </c>
       <c r="Q24">
-        <v>1.002732501452284</v>
+        <v>1.016242227910169</v>
       </c>
       <c r="R24">
-        <v>0.9923301303775155</v>
+        <v>1.004746285625206</v>
       </c>
       <c r="S24">
-        <v>0.9923301303775155</v>
+        <v>1.004746285625206</v>
       </c>
       <c r="T24">
-        <v>1.00505670218276</v>
+        <v>1.005747798309415</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.975533036580572</v>
+        <v>1.05432540472902</v>
       </c>
       <c r="D25">
-        <v>0.9644260654808853</v>
+        <v>0.8530855837407341</v>
       </c>
       <c r="E25">
-        <v>1.067156282378092</v>
+        <v>1.047365424485008</v>
       </c>
       <c r="F25">
-        <v>1.01422573709254</v>
+        <v>0.9786589849979106</v>
       </c>
       <c r="G25">
-        <v>0.9230763229458547</v>
+        <v>1.061581022273859</v>
       </c>
       <c r="H25">
-        <v>0.992443620583089</v>
+        <v>0.9503847246480529</v>
       </c>
       <c r="I25">
-        <v>0.9230763229458547</v>
+        <v>1.061581022273859</v>
       </c>
       <c r="J25">
-        <v>1.067156282378092</v>
+        <v>1.047365424485008</v>
       </c>
       <c r="K25">
-        <v>1.067156282378092</v>
+        <v>1.047365424485008</v>
       </c>
       <c r="L25">
-        <v>0.992443620583089</v>
+        <v>0.9503847246480529</v>
       </c>
       <c r="M25">
-        <v>0.9577599717644718</v>
+        <v>1.005982873460956</v>
       </c>
       <c r="N25">
-        <v>0.9577599717644718</v>
+        <v>1.005982873460956</v>
       </c>
       <c r="O25">
-        <v>0.9636843267031718</v>
+        <v>1.022097050550311</v>
       </c>
       <c r="P25">
-        <v>0.9942254086356787</v>
+        <v>1.01977705713564</v>
       </c>
       <c r="Q25">
-        <v>0.9942254086356787</v>
+        <v>1.01977705713564</v>
       </c>
       <c r="R25">
-        <v>1.012458127071282</v>
+        <v>1.026674148972982</v>
       </c>
       <c r="S25">
-        <v>1.012458127071282</v>
+        <v>1.026674148972982</v>
       </c>
       <c r="T25">
-        <v>0.9894768441768388</v>
+        <v>0.9909001908124306</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.994130198163685</v>
+        <v>1.015878292789818</v>
       </c>
       <c r="D26">
-        <v>1.035213233802188</v>
+        <v>1.014575212475614</v>
       </c>
       <c r="E26">
-        <v>0.9792352521322691</v>
+        <v>0.9611230171532089</v>
       </c>
       <c r="F26">
-        <v>1.00121374672298</v>
+        <v>0.991689203474276</v>
       </c>
       <c r="G26">
-        <v>1.00369771773012</v>
+        <v>1.042806609087952</v>
       </c>
       <c r="H26">
-        <v>1.01025838995085</v>
+        <v>1.004267878115692</v>
       </c>
       <c r="I26">
-        <v>1.00369771773012</v>
+        <v>1.042806609087952</v>
       </c>
       <c r="J26">
-        <v>0.9792352521322691</v>
+        <v>0.9611230171532089</v>
       </c>
       <c r="K26">
-        <v>0.9792352521322691</v>
+        <v>0.9611230171532089</v>
       </c>
       <c r="L26">
-        <v>1.01025838995085</v>
+        <v>1.004267878115692</v>
       </c>
       <c r="M26">
-        <v>1.006978053840485</v>
+        <v>1.023537243601822</v>
       </c>
       <c r="N26">
-        <v>1.006978053840485</v>
+        <v>1.023537243601822</v>
       </c>
       <c r="O26">
-        <v>1.002695435281552</v>
+        <v>1.020984259997821</v>
       </c>
       <c r="P26">
-        <v>0.9977304532710797</v>
+        <v>1.002732501452284</v>
       </c>
       <c r="Q26">
-        <v>0.9977304532710797</v>
+        <v>1.002732501452284</v>
       </c>
       <c r="R26">
-        <v>0.993106652986377</v>
+        <v>0.9923301303775155</v>
       </c>
       <c r="S26">
-        <v>0.993106652986377</v>
+        <v>0.9923301303775155</v>
       </c>
       <c r="T26">
-        <v>1.003958089750349</v>
+        <v>1.00505670218276</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.97096457517307</v>
+        <v>0.975533036580572</v>
       </c>
       <c r="D27">
-        <v>1.028980653568425</v>
+        <v>0.9644260654808853</v>
       </c>
       <c r="E27">
-        <v>1.017313377204708</v>
+        <v>1.067156282378092</v>
       </c>
       <c r="F27">
-        <v>1.013936979914781</v>
+        <v>1.01422573709254</v>
       </c>
       <c r="G27">
-        <v>0.9393369506631409</v>
+        <v>0.9230763229458547</v>
       </c>
       <c r="H27">
-        <v>1.012547535095565</v>
+        <v>0.992443620583089</v>
       </c>
       <c r="I27">
-        <v>0.9393369506631409</v>
+        <v>0.9230763229458547</v>
       </c>
       <c r="J27">
-        <v>1.017313377204708</v>
+        <v>1.067156282378092</v>
       </c>
       <c r="K27">
-        <v>1.017313377204708</v>
+        <v>1.067156282378092</v>
       </c>
       <c r="L27">
-        <v>1.012547535095565</v>
+        <v>0.992443620583089</v>
       </c>
       <c r="M27">
-        <v>0.9759422428793529</v>
+        <v>0.9577599717644718</v>
       </c>
       <c r="N27">
-        <v>0.9759422428793529</v>
+        <v>0.9577599717644718</v>
       </c>
       <c r="O27">
-        <v>0.974283020310592</v>
+        <v>0.9636843267031718</v>
       </c>
       <c r="P27">
-        <v>0.9897326209878045</v>
+        <v>0.9942254086356787</v>
       </c>
       <c r="Q27">
-        <v>0.9897326209878045</v>
+        <v>0.9942254086356787</v>
       </c>
       <c r="R27">
-        <v>0.9966278100420303</v>
+        <v>1.012458127071282</v>
       </c>
       <c r="S27">
-        <v>0.9966278100420303</v>
+        <v>1.012458127071282</v>
       </c>
       <c r="T27">
-        <v>0.9971800119366149</v>
+        <v>0.9894768441768388</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.006649407313305</v>
+        <v>0.994130198163685</v>
       </c>
       <c r="D28">
-        <v>0.961182478182254</v>
+        <v>1.035213233802188</v>
       </c>
       <c r="E28">
-        <v>1.02676237869226</v>
+        <v>0.9792352521322691</v>
       </c>
       <c r="F28">
-        <v>0.9976500505218072</v>
+        <v>1.00121374672298</v>
       </c>
       <c r="G28">
-        <v>1.002645285850874</v>
+        <v>1.00369771773012</v>
       </c>
       <c r="H28">
-        <v>0.9856696669696746</v>
+        <v>1.01025838995085</v>
       </c>
       <c r="I28">
-        <v>1.002645285850874</v>
+        <v>1.00369771773012</v>
       </c>
       <c r="J28">
-        <v>1.02676237869226</v>
+        <v>0.9792352521322691</v>
       </c>
       <c r="K28">
-        <v>1.02676237869226</v>
+        <v>0.9792352521322691</v>
       </c>
       <c r="L28">
-        <v>0.9856696669696746</v>
+        <v>1.01025838995085</v>
       </c>
       <c r="M28">
-        <v>0.9941574764102743</v>
+        <v>1.006978053840485</v>
       </c>
       <c r="N28">
-        <v>0.9941574764102743</v>
+        <v>1.006978053840485</v>
       </c>
       <c r="O28">
-        <v>0.9983214533779513</v>
+        <v>1.002695435281552</v>
       </c>
       <c r="P28">
-        <v>1.005025777170936</v>
+        <v>0.9977304532710797</v>
       </c>
       <c r="Q28">
-        <v>1.005025777170936</v>
+        <v>0.9977304532710797</v>
       </c>
       <c r="R28">
-        <v>1.010459927551267</v>
+        <v>0.993106652986377</v>
       </c>
       <c r="S28">
-        <v>1.010459927551267</v>
+        <v>0.993106652986377</v>
       </c>
       <c r="T28">
-        <v>0.9967598779216957</v>
+        <v>1.003958089750349</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.97096457517307</v>
+      </c>
+      <c r="D29">
+        <v>1.028980653568425</v>
+      </c>
+      <c r="E29">
+        <v>1.017313377204708</v>
+      </c>
+      <c r="F29">
+        <v>1.013936979914781</v>
+      </c>
+      <c r="G29">
+        <v>0.9393369506631409</v>
+      </c>
+      <c r="H29">
+        <v>1.012547535095565</v>
+      </c>
+      <c r="I29">
+        <v>0.9393369506631409</v>
+      </c>
+      <c r="J29">
+        <v>1.017313377204708</v>
+      </c>
+      <c r="K29">
+        <v>1.017313377204708</v>
+      </c>
+      <c r="L29">
+        <v>1.012547535095565</v>
+      </c>
+      <c r="M29">
+        <v>0.9759422428793529</v>
+      </c>
+      <c r="N29">
+        <v>0.9759422428793529</v>
+      </c>
+      <c r="O29">
+        <v>0.974283020310592</v>
+      </c>
+      <c r="P29">
+        <v>0.9897326209878045</v>
+      </c>
+      <c r="Q29">
+        <v>0.9897326209878045</v>
+      </c>
+      <c r="R29">
+        <v>0.9966278100420303</v>
+      </c>
+      <c r="S29">
+        <v>0.9966278100420303</v>
+      </c>
+      <c r="T29">
+        <v>0.9971800119366149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.006649407313305</v>
+      </c>
+      <c r="D30">
+        <v>0.961182478182254</v>
+      </c>
+      <c r="E30">
+        <v>1.02676237869226</v>
+      </c>
+      <c r="F30">
+        <v>0.9976500505218072</v>
+      </c>
+      <c r="G30">
+        <v>1.002645285850874</v>
+      </c>
+      <c r="H30">
+        <v>0.9856696669696746</v>
+      </c>
+      <c r="I30">
+        <v>1.002645285850874</v>
+      </c>
+      <c r="J30">
+        <v>1.02676237869226</v>
+      </c>
+      <c r="K30">
+        <v>1.02676237869226</v>
+      </c>
+      <c r="L30">
+        <v>0.9856696669696746</v>
+      </c>
+      <c r="M30">
+        <v>0.9941574764102743</v>
+      </c>
+      <c r="N30">
+        <v>0.9941574764102743</v>
+      </c>
+      <c r="O30">
+        <v>0.9983214533779513</v>
+      </c>
+      <c r="P30">
+        <v>1.005025777170936</v>
+      </c>
+      <c r="Q30">
+        <v>1.005025777170936</v>
+      </c>
+      <c r="R30">
+        <v>1.010459927551267</v>
+      </c>
+      <c r="S30">
+        <v>1.010459927551267</v>
+      </c>
+      <c r="T30">
+        <v>0.9967598779216957</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.098328064806429</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.8267937295268546</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9920008746115695</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9599966531844948</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.137819380463258</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9468261909527298</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.137819380463258</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9920008746115695</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9920008746115695</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9468261909527298</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.042322785707994</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.042322785707994</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.060991212074139</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.025548815342519</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.025548815342519</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.017161830159782</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.017161830159782</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9936274822575557</v>
       </c>
     </row>
